--- a/raw_data/20200818_saline/20200818_Sensor2_Test_94.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_94.xlsx
@@ -1,1641 +1,2057 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98048FC3-B95A-42F2-99B9-EB39DEF4B62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>84076.129300</v>
+        <v>84076.129300000001</v>
       </c>
       <c r="B2" s="1">
-        <v>23.354480</v>
+        <v>23.354479999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>1238.010000</v>
+        <v>1238.01</v>
       </c>
       <c r="D2" s="1">
-        <v>-302.301000</v>
+        <v>-302.30099999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>84086.527964</v>
+        <v>84086.527963999994</v>
       </c>
       <c r="G2" s="1">
-        <v>23.357369</v>
+        <v>23.357368999999998</v>
       </c>
       <c r="H2" s="1">
-        <v>1262.960000</v>
+        <v>1262.96</v>
       </c>
       <c r="I2" s="1">
-        <v>-261.456000</v>
+        <v>-261.45600000000002</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>84097.035671</v>
+        <v>84097.035671000005</v>
       </c>
       <c r="L2" s="1">
-        <v>23.360288</v>
+        <v>23.360288000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>1297.840000</v>
+        <v>1297.8399999999999</v>
       </c>
       <c r="N2" s="1">
-        <v>-199.312000</v>
+        <v>-199.31200000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>84107.853454</v>
+        <v>84107.853453999996</v>
       </c>
       <c r="Q2" s="1">
-        <v>23.363293</v>
+        <v>23.363292999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>1309.410000</v>
+        <v>1309.4100000000001</v>
       </c>
       <c r="S2" s="1">
-        <v>-181.373000</v>
+        <v>-181.37299999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>84118.749547</v>
+        <v>84118.749546999999</v>
       </c>
       <c r="V2" s="1">
-        <v>23.366319</v>
+        <v>23.366319000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>1322.380000</v>
+        <v>1322.38</v>
       </c>
       <c r="X2" s="1">
-        <v>-167.597000</v>
+        <v>-167.59700000000001</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>84129.195804</v>
+        <v>84129.195804000003</v>
       </c>
       <c r="AA2" s="1">
         <v>23.369221</v>
       </c>
       <c r="AB2" s="1">
-        <v>1339.210000</v>
+        <v>1339.21</v>
       </c>
       <c r="AC2" s="1">
-        <v>-164.636000</v>
+        <v>-164.636</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>84139.545791</v>
+        <v>84139.545790999997</v>
       </c>
       <c r="AF2" s="1">
-        <v>23.372096</v>
+        <v>23.372095999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>1351.590000</v>
+        <v>1351.59</v>
       </c>
       <c r="AH2" s="1">
-        <v>-173.702000</v>
+        <v>-173.702</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>84149.770817</v>
+        <v>84149.770816999997</v>
       </c>
       <c r="AK2" s="1">
-        <v>23.374936</v>
+        <v>23.374936000000002</v>
       </c>
       <c r="AL2" s="1">
-        <v>1371.300000</v>
+        <v>1371.3</v>
       </c>
       <c r="AM2" s="1">
-        <v>-202.300000</v>
+        <v>-202.3</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>84160.322213</v>
+        <v>84160.322213000007</v>
       </c>
       <c r="AP2" s="1">
-        <v>23.377867</v>
+        <v>23.377866999999998</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1391.990000</v>
+        <v>1391.99</v>
       </c>
       <c r="AR2" s="1">
-        <v>-244.694000</v>
+        <v>-244.69399999999999</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>84170.921719</v>
+        <v>84170.921719000005</v>
       </c>
       <c r="AU2" s="1">
-        <v>23.380812</v>
+        <v>23.380811999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>1415.500000</v>
+        <v>1415.5</v>
       </c>
       <c r="AW2" s="1">
-        <v>-303.065000</v>
+        <v>-303.065</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>84181.688871</v>
+        <v>84181.688871000006</v>
       </c>
       <c r="AZ2" s="1">
-        <v>23.383802</v>
+        <v>23.383801999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1434.180000</v>
+        <v>1434.18</v>
       </c>
       <c r="BB2" s="1">
-        <v>-353.841000</v>
+        <v>-353.84100000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>84192.553241</v>
+        <v>84192.553241000001</v>
       </c>
       <c r="BE2" s="1">
-        <v>23.386820</v>
+        <v>23.38682</v>
       </c>
       <c r="BF2" s="1">
-        <v>1517.380000</v>
+        <v>1517.38</v>
       </c>
       <c r="BG2" s="1">
-        <v>-595.703000</v>
+        <v>-595.70299999999997</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>84203.529707</v>
+        <v>84203.529706999994</v>
       </c>
       <c r="BJ2" s="1">
-        <v>23.389869</v>
+        <v>23.389869000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1669.120000</v>
+        <v>1669.12</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1027.900000</v>
+        <v>-1027.9000000000001</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>84214.712016</v>
+        <v>84214.712016000005</v>
       </c>
       <c r="BO2" s="1">
-        <v>23.392976</v>
+        <v>23.392976000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1958.270000</v>
+        <v>1958.27</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1773.400000</v>
+        <v>-1773.4</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>84227.441371</v>
+        <v>84227.441370999994</v>
       </c>
       <c r="BT2" s="1">
         <v>23.396511</v>
       </c>
       <c r="BU2" s="1">
-        <v>2337.860000</v>
+        <v>2337.86</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2633.970000</v>
+        <v>-2633.97</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>84239.393932</v>
+        <v>84239.393932000006</v>
       </c>
       <c r="BY2" s="1">
         <v>23.399832</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2806.370000</v>
+        <v>2806.37</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3568.680000</v>
+        <v>-3568.68</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>84250.380819</v>
+        <v>84250.380818999998</v>
       </c>
       <c r="CD2" s="1">
         <v>23.402884</v>
       </c>
       <c r="CE2" s="1">
-        <v>4190.690000</v>
+        <v>4190.6899999999996</v>
       </c>
       <c r="CF2" s="1">
-        <v>-5813.400000</v>
+        <v>-5813.4</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>84076.515188</v>
+        <v>84076.515188000005</v>
       </c>
       <c r="B3" s="1">
         <v>23.354588</v>
       </c>
       <c r="C3" s="1">
-        <v>1237.990000</v>
+        <v>1237.99</v>
       </c>
       <c r="D3" s="1">
-        <v>-302.671000</v>
+        <v>-302.67099999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>84086.890996</v>
+        <v>84086.890996000002</v>
       </c>
       <c r="G3" s="1">
-        <v>23.357470</v>
+        <v>23.357469999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>1262.630000</v>
+        <v>1262.6300000000001</v>
       </c>
       <c r="I3" s="1">
-        <v>-261.286000</v>
+        <v>-261.286</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>84097.415607</v>
+        <v>84097.415607000003</v>
       </c>
       <c r="L3" s="1">
-        <v>23.360393</v>
+        <v>23.360392999999998</v>
       </c>
       <c r="M3" s="1">
-        <v>1297.910000</v>
+        <v>1297.9100000000001</v>
       </c>
       <c r="N3" s="1">
-        <v>-199.317000</v>
+        <v>-199.31700000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>84108.552314</v>
       </c>
       <c r="Q3" s="1">
-        <v>23.363487</v>
+        <v>23.363486999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>1309.520000</v>
+        <v>1309.52</v>
       </c>
       <c r="S3" s="1">
-        <v>-181.309000</v>
+        <v>-181.309</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>84119.145339</v>
+        <v>84119.145338999995</v>
       </c>
       <c r="V3" s="1">
         <v>23.366429</v>
       </c>
       <c r="W3" s="1">
-        <v>1322.220000</v>
+        <v>1322.22</v>
       </c>
       <c r="X3" s="1">
-        <v>-167.449000</v>
+        <v>-167.44900000000001</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>84129.614396</v>
+        <v>84129.614396000004</v>
       </c>
       <c r="AA3" s="1">
-        <v>23.369337</v>
+        <v>23.369337000000002</v>
       </c>
       <c r="AB3" s="1">
-        <v>1339.110000</v>
+        <v>1339.11</v>
       </c>
       <c r="AC3" s="1">
-        <v>-164.737000</v>
+        <v>-164.73699999999999</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>84139.890511</v>
+        <v>84139.890511000005</v>
       </c>
       <c r="AF3" s="1">
-        <v>23.372192</v>
+        <v>23.372191999999998</v>
       </c>
       <c r="AG3" s="1">
-        <v>1351.610000</v>
+        <v>1351.61</v>
       </c>
       <c r="AH3" s="1">
-        <v>-173.635000</v>
+        <v>-173.63499999999999</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>84150.125953</v>
+        <v>84150.125952999995</v>
       </c>
       <c r="AK3" s="1">
         <v>23.375035</v>
       </c>
       <c r="AL3" s="1">
-        <v>1371.290000</v>
+        <v>1371.29</v>
       </c>
       <c r="AM3" s="1">
-        <v>-202.302000</v>
+        <v>-202.30199999999999</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>84160.715044</v>
+        <v>84160.715043999997</v>
       </c>
       <c r="AP3" s="1">
         <v>23.377976</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1392.000000</v>
+        <v>1392</v>
       </c>
       <c r="AR3" s="1">
-        <v>-244.745000</v>
+        <v>-244.745</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>84171.461960</v>
+        <v>84171.461960000001</v>
       </c>
       <c r="AU3" s="1">
         <v>23.380962</v>
       </c>
       <c r="AV3" s="1">
-        <v>1415.480000</v>
+        <v>1415.48</v>
       </c>
       <c r="AW3" s="1">
-        <v>-303.056000</v>
+        <v>-303.05599999999998</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>84182.126852</v>
+        <v>84182.126852000001</v>
       </c>
       <c r="AZ3" s="1">
         <v>23.383924</v>
       </c>
       <c r="BA3" s="1">
-        <v>1434.150000</v>
+        <v>1434.15</v>
       </c>
       <c r="BB3" s="1">
-        <v>-353.840000</v>
+        <v>-353.84</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>84192.955993</v>
+        <v>84192.955992999996</v>
       </c>
       <c r="BE3" s="1">
-        <v>23.386932</v>
+        <v>23.386932000000002</v>
       </c>
       <c r="BF3" s="1">
-        <v>1517.370000</v>
+        <v>1517.37</v>
       </c>
       <c r="BG3" s="1">
-        <v>-595.692000</v>
+        <v>-595.69200000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>84203.974618</v>
+        <v>84203.974617999993</v>
       </c>
       <c r="BJ3" s="1">
         <v>23.389993</v>
       </c>
       <c r="BK3" s="1">
-        <v>1669.140000</v>
+        <v>1669.14</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1027.640000</v>
+        <v>-1027.6400000000001</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>84215.139069</v>
+        <v>84215.139068999997</v>
       </c>
       <c r="BO3" s="1">
-        <v>23.393094</v>
+        <v>23.393094000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1958.110000</v>
+        <v>1958.11</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1773.580000</v>
+        <v>-1773.58</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>84227.944282</v>
+        <v>84227.944281999997</v>
       </c>
       <c r="BT3" s="1">
-        <v>23.396651</v>
+        <v>23.396650999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>2337.050000</v>
+        <v>2337.0500000000002</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2634.270000</v>
+        <v>-2634.27</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>84239.860667</v>
+        <v>84239.860667000001</v>
       </c>
       <c r="BY3" s="1">
-        <v>23.399961</v>
+        <v>23.399961000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2806.860000</v>
+        <v>2806.86</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3568.940000</v>
+        <v>-3568.94</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>84250.920461</v>
+        <v>84250.920461000002</v>
       </c>
       <c r="CD3" s="1">
-        <v>23.403033</v>
+        <v>23.403033000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>4174.460000</v>
+        <v>4174.46</v>
       </c>
       <c r="CF3" s="1">
-        <v>-5812.330000</v>
+        <v>-5812.33</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>84076.852466</v>
+        <v>84076.852465999997</v>
       </c>
       <c r="B4" s="1">
-        <v>23.354681</v>
+        <v>23.354680999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>1238.090000</v>
+        <v>1238.0899999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>-302.401000</v>
+        <v>-302.40100000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>84087.563571</v>
+        <v>84087.563571000006</v>
       </c>
       <c r="G4" s="1">
         <v>23.357657</v>
       </c>
       <c r="H4" s="1">
-        <v>1263.160000</v>
+        <v>1263.1600000000001</v>
       </c>
       <c r="I4" s="1">
-        <v>-261.026000</v>
+        <v>-261.02600000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>84098.067846</v>
+        <v>84098.067846000005</v>
       </c>
       <c r="L4" s="1">
         <v>23.360574</v>
       </c>
       <c r="M4" s="1">
-        <v>1297.920000</v>
+        <v>1297.92</v>
       </c>
       <c r="N4" s="1">
-        <v>-199.496000</v>
+        <v>-199.49600000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>84108.943139</v>
+        <v>84108.943138999995</v>
       </c>
       <c r="Q4" s="1">
         <v>23.363595</v>
       </c>
       <c r="R4" s="1">
-        <v>1309.540000</v>
+        <v>1309.54</v>
       </c>
       <c r="S4" s="1">
-        <v>-181.388000</v>
+        <v>-181.38800000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>84119.490063</v>
+        <v>84119.490063000005</v>
       </c>
       <c r="V4" s="1">
-        <v>23.366525</v>
+        <v>23.366524999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>1322.260000</v>
+        <v>1322.26</v>
       </c>
       <c r="X4" s="1">
-        <v>-167.697000</v>
+        <v>-167.697</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>84129.961596</v>
+        <v>84129.961595999994</v>
       </c>
       <c r="AA4" s="1">
-        <v>23.369434</v>
+        <v>23.369433999999998</v>
       </c>
       <c r="AB4" s="1">
-        <v>1339.230000</v>
+        <v>1339.23</v>
       </c>
       <c r="AC4" s="1">
-        <v>-164.686000</v>
+        <v>-164.68600000000001</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>84140.239732</v>
+        <v>84140.239732000002</v>
       </c>
       <c r="AF4" s="1">
-        <v>23.372289</v>
+        <v>23.372288999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>1351.600000</v>
+        <v>1351.6</v>
       </c>
       <c r="AH4" s="1">
-        <v>-173.714000</v>
+        <v>-173.714</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>84150.470673</v>
+        <v>84150.470673000003</v>
       </c>
       <c r="AK4" s="1">
         <v>23.375131</v>
       </c>
       <c r="AL4" s="1">
-        <v>1371.310000</v>
+        <v>1371.31</v>
       </c>
       <c r="AM4" s="1">
-        <v>-202.288000</v>
+        <v>-202.28800000000001</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>84161.151523</v>
+        <v>84161.151522999993</v>
       </c>
       <c r="AP4" s="1">
-        <v>23.378098</v>
+        <v>23.378098000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1392.000000</v>
+        <v>1392</v>
       </c>
       <c r="AR4" s="1">
-        <v>-244.728000</v>
+        <v>-244.72800000000001</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>84171.669722</v>
+        <v>84171.669722000006</v>
       </c>
       <c r="AU4" s="1">
-        <v>23.381019</v>
+        <v>23.381018999999998</v>
       </c>
       <c r="AV4" s="1">
-        <v>1415.520000</v>
+        <v>1415.52</v>
       </c>
       <c r="AW4" s="1">
-        <v>-303.067000</v>
+        <v>-303.06700000000001</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>84182.434858</v>
+        <v>84182.434857999993</v>
       </c>
       <c r="AZ4" s="1">
-        <v>23.384010</v>
+        <v>23.38401</v>
       </c>
       <c r="BA4" s="1">
-        <v>1434.130000</v>
+        <v>1434.13</v>
       </c>
       <c r="BB4" s="1">
-        <v>-353.833000</v>
+        <v>-353.83300000000003</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>84193.318605</v>
+        <v>84193.318604999993</v>
       </c>
       <c r="BE4" s="1">
-        <v>23.387033</v>
+        <v>23.387032999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1517.310000</v>
+        <v>1517.31</v>
       </c>
       <c r="BG4" s="1">
-        <v>-595.662000</v>
+        <v>-595.66200000000003</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>84204.378857</v>
+        <v>84204.378857000003</v>
       </c>
       <c r="BJ4" s="1">
-        <v>23.390105</v>
+        <v>23.390104999999998</v>
       </c>
       <c r="BK4" s="1">
-        <v>1669.080000</v>
+        <v>1669.08</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1027.720000</v>
+        <v>-1027.72</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>84215.545330</v>
+        <v>84215.545329999994</v>
       </c>
       <c r="BO4" s="1">
         <v>23.393207</v>
       </c>
       <c r="BP4" s="1">
-        <v>1957.970000</v>
+        <v>1957.97</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1773.730000</v>
+        <v>-1773.73</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>84228.376330</v>
+        <v>84228.376329999999</v>
       </c>
       <c r="BT4" s="1">
-        <v>23.396771</v>
+        <v>23.396771000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>2337.320000</v>
+        <v>2337.3200000000002</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2634.870000</v>
+        <v>-2634.87</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>84240.308554</v>
+        <v>84240.308554000003</v>
       </c>
       <c r="BY4" s="1">
-        <v>23.400086</v>
+        <v>23.400086000000002</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2806.630000</v>
+        <v>2806.63</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3569.000000</v>
+        <v>-3569</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>84251.442289</v>
+        <v>84251.442288999999</v>
       </c>
       <c r="CD4" s="1">
         <v>23.403178</v>
       </c>
       <c r="CE4" s="1">
-        <v>4172.370000</v>
+        <v>4172.37</v>
       </c>
       <c r="CF4" s="1">
-        <v>-5826.870000</v>
+        <v>-5826.87</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
         <v>84077.532519</v>
       </c>
       <c r="B5" s="1">
-        <v>23.354870</v>
+        <v>23.354869999999998</v>
       </c>
       <c r="C5" s="1">
-        <v>1237.990000</v>
+        <v>1237.99</v>
       </c>
       <c r="D5" s="1">
-        <v>-302.138000</v>
+        <v>-302.13799999999998</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>84087.923701</v>
+        <v>84087.923701000007</v>
       </c>
       <c r="G5" s="1">
-        <v>23.357757</v>
+        <v>23.357756999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>1262.960000</v>
+        <v>1262.96</v>
       </c>
       <c r="I5" s="1">
-        <v>-261.432000</v>
+        <v>-261.43200000000002</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>84098.442327</v>
+        <v>84098.442326999997</v>
       </c>
       <c r="L5" s="1">
         <v>23.360678</v>
       </c>
       <c r="M5" s="1">
-        <v>1297.940000</v>
+        <v>1297.94</v>
       </c>
       <c r="N5" s="1">
-        <v>-199.458000</v>
+        <v>-199.458</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>84109.288840</v>
+        <v>84109.288839999994</v>
       </c>
       <c r="Q5" s="1">
-        <v>23.363691</v>
+        <v>23.363690999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>1309.530000</v>
+        <v>1309.53</v>
       </c>
       <c r="S5" s="1">
-        <v>-181.401000</v>
+        <v>-181.40100000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>84119.831802</v>
+        <v>84119.831802000001</v>
       </c>
       <c r="V5" s="1">
-        <v>23.366620</v>
+        <v>23.366620000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>1322.410000</v>
+        <v>1322.41</v>
       </c>
       <c r="X5" s="1">
-        <v>-167.386000</v>
+        <v>-167.386</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>84130.313260</v>
+        <v>84130.313259999995</v>
       </c>
       <c r="AA5" s="1">
-        <v>23.369531</v>
+        <v>23.369530999999998</v>
       </c>
       <c r="AB5" s="1">
-        <v>1339.190000</v>
+        <v>1339.19</v>
       </c>
       <c r="AC5" s="1">
-        <v>-164.550000</v>
+        <v>-164.55</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>84140.679150</v>
+        <v>84140.679149999996</v>
       </c>
       <c r="AF5" s="1">
         <v>23.372411</v>
       </c>
       <c r="AG5" s="1">
-        <v>1351.650000</v>
+        <v>1351.65</v>
       </c>
       <c r="AH5" s="1">
-        <v>-173.676000</v>
+        <v>-173.67599999999999</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>84150.913907</v>
+        <v>84150.913906999995</v>
       </c>
       <c r="AK5" s="1">
-        <v>23.375254</v>
+        <v>23.375254000000002</v>
       </c>
       <c r="AL5" s="1">
-        <v>1371.310000</v>
+        <v>1371.31</v>
       </c>
       <c r="AM5" s="1">
-        <v>-202.311000</v>
+        <v>-202.31100000000001</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>84161.435730</v>
+        <v>84161.435729999997</v>
       </c>
       <c r="AP5" s="1">
-        <v>23.378177</v>
+        <v>23.378177000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1391.970000</v>
+        <v>1391.97</v>
       </c>
       <c r="AR5" s="1">
-        <v>-244.731000</v>
+        <v>-244.73099999999999</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>84172.035237</v>
+        <v>84172.035237000004</v>
       </c>
       <c r="AU5" s="1">
         <v>23.381121</v>
       </c>
       <c r="AV5" s="1">
-        <v>1415.530000</v>
+        <v>1415.53</v>
       </c>
       <c r="AW5" s="1">
-        <v>-303.045000</v>
+        <v>-303.04500000000002</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>84182.796438</v>
+        <v>84182.796438000005</v>
       </c>
       <c r="AZ5" s="1">
-        <v>23.384110</v>
+        <v>23.38411</v>
       </c>
       <c r="BA5" s="1">
-        <v>1434.160000</v>
+        <v>1434.16</v>
       </c>
       <c r="BB5" s="1">
-        <v>-353.839000</v>
+        <v>-353.839</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>84193.684657</v>
+        <v>84193.684657000005</v>
       </c>
       <c r="BE5" s="1">
-        <v>23.387135</v>
+        <v>23.387135000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1517.380000</v>
+        <v>1517.38</v>
       </c>
       <c r="BG5" s="1">
-        <v>-595.723000</v>
+        <v>-595.72299999999996</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>84204.753833</v>
+        <v>84204.753832999995</v>
       </c>
       <c r="BJ5" s="1">
-        <v>23.390209</v>
+        <v>23.390208999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1669.040000</v>
+        <v>1669.04</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1027.700000</v>
+        <v>-1027.7</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>84216.356250</v>
+        <v>84216.356249999997</v>
       </c>
       <c r="BO5" s="1">
-        <v>23.393432</v>
+        <v>23.393432000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1957.870000</v>
+        <v>1957.87</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1773.790000</v>
+        <v>-1773.79</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>84228.787482</v>
       </c>
       <c r="BT5" s="1">
-        <v>23.396885</v>
+        <v>23.396885000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>2336.610000</v>
+        <v>2336.61</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2634.800000</v>
+        <v>-2634.8</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>84240.738585</v>
+        <v>84240.738584999999</v>
       </c>
       <c r="BY5" s="1">
         <v>23.400205</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2806.540000</v>
+        <v>2806.54</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3569.120000</v>
+        <v>-3569.12</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>84251.958623</v>
+        <v>84251.958622999999</v>
       </c>
       <c r="CD5" s="1">
-        <v>23.403322</v>
+        <v>23.403321999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>4185.960000</v>
+        <v>4185.96</v>
       </c>
       <c r="CF5" s="1">
-        <v>-5827.260000</v>
+        <v>-5827.26</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>84077.879685</v>
+        <v>84077.879685000007</v>
       </c>
       <c r="B6" s="1">
-        <v>23.354967</v>
+        <v>23.354966999999998</v>
       </c>
       <c r="C6" s="1">
-        <v>1238.070000</v>
+        <v>1238.07</v>
       </c>
       <c r="D6" s="1">
-        <v>-302.384000</v>
+        <v>-302.38400000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>84088.277315</v>
+        <v>84088.277314999999</v>
       </c>
       <c r="G6" s="1">
-        <v>23.357855</v>
+        <v>23.357855000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>1263.130000</v>
+        <v>1263.1300000000001</v>
       </c>
       <c r="I6" s="1">
-        <v>-260.895000</v>
+        <v>-260.89499999999998</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>84098.822261</v>
+        <v>84098.822260999994</v>
       </c>
       <c r="L6" s="1">
-        <v>23.360784</v>
+        <v>23.360783999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>1297.790000</v>
+        <v>1297.79</v>
       </c>
       <c r="N6" s="1">
-        <v>-199.502000</v>
+        <v>-199.50200000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>84109.637546</v>
+        <v>84109.637545999998</v>
       </c>
       <c r="Q6" s="1">
         <v>23.363788</v>
       </c>
       <c r="R6" s="1">
-        <v>1309.440000</v>
+        <v>1309.44</v>
       </c>
       <c r="S6" s="1">
-        <v>-181.419000</v>
+        <v>-181.41900000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>84120.263816</v>
+        <v>84120.263816000006</v>
       </c>
       <c r="V6" s="1">
-        <v>23.366740</v>
+        <v>23.36674</v>
       </c>
       <c r="W6" s="1">
-        <v>1322.380000</v>
+        <v>1322.38</v>
       </c>
       <c r="X6" s="1">
-        <v>-167.558000</v>
+        <v>-167.55799999999999</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>84130.747260</v>
+        <v>84130.747260000004</v>
       </c>
       <c r="AA6" s="1">
-        <v>23.369652</v>
+        <v>23.369651999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>1339.100000</v>
+        <v>1339.1</v>
       </c>
       <c r="AC6" s="1">
-        <v>-164.685000</v>
+        <v>-164.685</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>84140.943517</v>
+        <v>84140.943517000007</v>
       </c>
       <c r="AF6" s="1">
         <v>23.372484</v>
       </c>
       <c r="AG6" s="1">
-        <v>1351.570000</v>
+        <v>1351.57</v>
       </c>
       <c r="AH6" s="1">
-        <v>-173.677000</v>
+        <v>-173.67699999999999</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>84151.176976</v>
+        <v>84151.176976000002</v>
       </c>
       <c r="AK6" s="1">
-        <v>23.375327</v>
+        <v>23.375326999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>1371.350000</v>
+        <v>1371.35</v>
       </c>
       <c r="AM6" s="1">
-        <v>-202.290000</v>
+        <v>-202.29</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>84161.798306</v>
+        <v>84161.798305999997</v>
       </c>
       <c r="AP6" s="1">
-        <v>23.378277</v>
+        <v>23.378277000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1391.970000</v>
+        <v>1391.97</v>
       </c>
       <c r="AR6" s="1">
-        <v>-244.721000</v>
+        <v>-244.721</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>84172.397352</v>
@@ -1644,1570 +2060,1570 @@
         <v>23.381221</v>
       </c>
       <c r="AV6" s="1">
-        <v>1415.500000</v>
+        <v>1415.5</v>
       </c>
       <c r="AW6" s="1">
-        <v>-303.039000</v>
+        <v>-303.03899999999999</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>84183.156535</v>
+        <v>84183.156535000002</v>
       </c>
       <c r="AZ6" s="1">
-        <v>23.384210</v>
+        <v>23.384209999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1434.160000</v>
+        <v>1434.16</v>
       </c>
       <c r="BB6" s="1">
-        <v>-353.835000</v>
+        <v>-353.83499999999998</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>84194.402326</v>
+        <v>84194.402325999996</v>
       </c>
       <c r="BE6" s="1">
-        <v>23.387334</v>
+        <v>23.387333999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1517.380000</v>
+        <v>1517.38</v>
       </c>
       <c r="BG6" s="1">
-        <v>-595.685000</v>
+        <v>-595.68499999999995</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>84205.505768</v>
+        <v>84205.505768000003</v>
       </c>
       <c r="BJ6" s="1">
         <v>23.390418</v>
       </c>
       <c r="BK6" s="1">
-        <v>1669.110000</v>
+        <v>1669.11</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1027.810000</v>
+        <v>-1027.81</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>84216.766942</v>
+        <v>84216.766942000002</v>
       </c>
       <c r="BO6" s="1">
-        <v>23.393546</v>
+        <v>23.393546000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1957.830000</v>
+        <v>1957.83</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1773.610000</v>
+        <v>-1773.61</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
         <v>84229.220984</v>
       </c>
       <c r="BT6" s="1">
-        <v>23.397006</v>
+        <v>23.397006000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>2336.310000</v>
+        <v>2336.31</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2635.010000</v>
+        <v>-2635.01</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>84241.158736</v>
+        <v>84241.158735999998</v>
       </c>
       <c r="BY6" s="1">
-        <v>23.400322</v>
+        <v>23.400321999999999</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2806.940000</v>
+        <v>2806.94</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3569.370000</v>
+        <v>-3569.37</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>84252.804771</v>
+        <v>84252.804770999996</v>
       </c>
       <c r="CD6" s="1">
-        <v>23.403557</v>
+        <v>23.403556999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>4184.710000</v>
+        <v>4184.71</v>
       </c>
       <c r="CF6" s="1">
-        <v>-5814.360000</v>
+        <v>-5814.36</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>84078.219951</v>
+        <v>84078.219951000006</v>
       </c>
       <c r="B7" s="1">
-        <v>23.355061</v>
+        <v>23.355060999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>1238.370000</v>
+        <v>1238.3699999999999</v>
       </c>
       <c r="D7" s="1">
-        <v>-302.620000</v>
+        <v>-302.62</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>84088.615588</v>
+        <v>84088.615588000001</v>
       </c>
       <c r="G7" s="1">
-        <v>23.357949</v>
+        <v>23.357949000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>1262.850000</v>
+        <v>1262.8499999999999</v>
       </c>
       <c r="I7" s="1">
-        <v>-261.052000</v>
+        <v>-261.05200000000002</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>84099.145190</v>
+        <v>84099.145189999996</v>
       </c>
       <c r="L7" s="1">
-        <v>23.360874</v>
+        <v>23.360873999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>1297.730000</v>
+        <v>1297.73</v>
       </c>
       <c r="N7" s="1">
-        <v>-199.461000</v>
+        <v>-199.46100000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>84110.056646</v>
+        <v>84110.056645999997</v>
       </c>
       <c r="Q7" s="1">
-        <v>23.363905</v>
+        <v>23.363904999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>1309.490000</v>
+        <v>1309.49</v>
       </c>
       <c r="S7" s="1">
-        <v>-181.329000</v>
+        <v>-181.32900000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>84120.524712</v>
+        <v>84120.524711999999</v>
       </c>
       <c r="V7" s="1">
-        <v>23.366812</v>
+        <v>23.366811999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>1322.360000</v>
+        <v>1322.36</v>
       </c>
       <c r="X7" s="1">
-        <v>-167.538000</v>
+        <v>-167.53800000000001</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>84131.020555</v>
+        <v>84131.020554999996</v>
       </c>
       <c r="AA7" s="1">
-        <v>23.369728</v>
+        <v>23.369727999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>1339.200000</v>
+        <v>1339.2</v>
       </c>
       <c r="AC7" s="1">
-        <v>-164.758000</v>
+        <v>-164.75800000000001</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>84141.288764</v>
+        <v>84141.288763999997</v>
       </c>
       <c r="AF7" s="1">
-        <v>23.372580</v>
+        <v>23.372579999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>1351.600000</v>
+        <v>1351.6</v>
       </c>
       <c r="AH7" s="1">
-        <v>-173.686000</v>
+        <v>-173.68600000000001</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>84151.524175</v>
+        <v>84151.524174999999</v>
       </c>
       <c r="AK7" s="1">
-        <v>23.375423</v>
+        <v>23.375423000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>1371.290000</v>
+        <v>1371.29</v>
       </c>
       <c r="AM7" s="1">
-        <v>-202.263000</v>
+        <v>-202.26300000000001</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>84162.155921</v>
+        <v>84162.155920999998</v>
       </c>
       <c r="AP7" s="1">
         <v>23.378377</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1391.980000</v>
+        <v>1391.98</v>
       </c>
       <c r="AR7" s="1">
-        <v>-244.716000</v>
+        <v>-244.71600000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>84173.129412</v>
+        <v>84173.129411999995</v>
       </c>
       <c r="AU7" s="1">
         <v>23.381425</v>
       </c>
       <c r="AV7" s="1">
-        <v>1415.490000</v>
+        <v>1415.49</v>
       </c>
       <c r="AW7" s="1">
-        <v>-303.050000</v>
+        <v>-303.05</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>84183.866838</v>
+        <v>84183.866838000002</v>
       </c>
       <c r="AZ7" s="1">
-        <v>23.384407</v>
+        <v>23.384406999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1434.130000</v>
+        <v>1434.13</v>
       </c>
       <c r="BB7" s="1">
-        <v>-353.827000</v>
+        <v>-353.827</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>84194.769368</v>
+        <v>84194.769367999994</v>
       </c>
       <c r="BE7" s="1">
-        <v>23.387436</v>
+        <v>23.387436000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1517.350000</v>
+        <v>1517.35</v>
       </c>
       <c r="BG7" s="1">
-        <v>-595.683000</v>
+        <v>-595.68299999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>84205.877274</v>
+        <v>84205.877273999999</v>
       </c>
       <c r="BJ7" s="1">
         <v>23.390521</v>
       </c>
       <c r="BK7" s="1">
-        <v>1669.100000</v>
+        <v>1669.1</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1027.720000</v>
+        <v>-1027.72</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>84217.172664</v>
+        <v>84217.172663999998</v>
       </c>
       <c r="BO7" s="1">
         <v>23.393659</v>
       </c>
       <c r="BP7" s="1">
-        <v>1957.940000</v>
+        <v>1957.94</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1773.720000</v>
+        <v>-1773.72</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>84230.013591</v>
+        <v>84230.013590999995</v>
       </c>
       <c r="BT7" s="1">
         <v>23.397226</v>
       </c>
       <c r="BU7" s="1">
-        <v>2335.480000</v>
+        <v>2335.48</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2634.640000</v>
+        <v>-2634.64</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>84241.925512</v>
+        <v>84241.925512000002</v>
       </c>
       <c r="BY7" s="1">
-        <v>23.400535</v>
+        <v>23.400535000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2806.800000</v>
+        <v>2806.8</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3569.460000</v>
+        <v>-3569.46</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>84252.993737</v>
+        <v>84252.993736999997</v>
       </c>
       <c r="CD7" s="1">
-        <v>23.403609</v>
+        <v>23.403608999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>4171.580000</v>
+        <v>4171.58</v>
       </c>
       <c r="CF7" s="1">
-        <v>-5817.370000</v>
+        <v>-5817.37</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>84078.550272</v>
+        <v>84078.550271999993</v>
       </c>
       <c r="B8" s="1">
-        <v>23.355153</v>
+        <v>23.355153000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>1238.380000</v>
+        <v>1238.3800000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>-302.529000</v>
+        <v>-302.529</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>84089.059042</v>
+        <v>84089.059041999993</v>
       </c>
       <c r="G8" s="1">
         <v>23.358072</v>
       </c>
       <c r="H8" s="1">
-        <v>1262.980000</v>
+        <v>1262.98</v>
       </c>
       <c r="I8" s="1">
-        <v>-261.213000</v>
+        <v>-261.21300000000002</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>84099.835588</v>
+        <v>84099.835588000002</v>
       </c>
       <c r="L8" s="1">
         <v>23.361065</v>
       </c>
       <c r="M8" s="1">
-        <v>1297.670000</v>
+        <v>1297.67</v>
       </c>
       <c r="N8" s="1">
-        <v>-199.486000</v>
+        <v>-199.48599999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>84110.334903</v>
+        <v>84110.334902999995</v>
       </c>
       <c r="Q8" s="1">
         <v>23.363982</v>
       </c>
       <c r="R8" s="1">
-        <v>1309.470000</v>
+        <v>1309.47</v>
       </c>
       <c r="S8" s="1">
-        <v>-181.277000</v>
+        <v>-181.27699999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>84120.867448</v>
+        <v>84120.867448000005</v>
       </c>
       <c r="V8" s="1">
-        <v>23.366908</v>
+        <v>23.366907999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>1322.380000</v>
+        <v>1322.38</v>
       </c>
       <c r="X8" s="1">
-        <v>-167.599000</v>
+        <v>-167.59899999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>84131.365274</v>
+        <v>84131.365273999996</v>
       </c>
       <c r="AA8" s="1">
-        <v>23.369824</v>
+        <v>23.369824000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>1339.120000</v>
+        <v>1339.12</v>
       </c>
       <c r="AC8" s="1">
-        <v>-164.602000</v>
+        <v>-164.602</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>84141.629484</v>
+        <v>84141.629484000005</v>
       </c>
       <c r="AF8" s="1">
-        <v>23.372675</v>
+        <v>23.372675000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>1351.560000</v>
+        <v>1351.56</v>
       </c>
       <c r="AH8" s="1">
-        <v>-173.711000</v>
+        <v>-173.71100000000001</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>84151.867935</v>
+        <v>84151.867935000002</v>
       </c>
       <c r="AK8" s="1">
-        <v>23.375519</v>
+        <v>23.375519000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>1371.320000</v>
+        <v>1371.32</v>
       </c>
       <c r="AM8" s="1">
-        <v>-202.282000</v>
+        <v>-202.28200000000001</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>84162.876608</v>
+        <v>84162.876608000006</v>
       </c>
       <c r="AP8" s="1">
         <v>23.378577</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1391.980000</v>
+        <v>1391.98</v>
       </c>
       <c r="AR8" s="1">
-        <v>-244.723000</v>
+        <v>-244.72300000000001</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>84173.517314</v>
+        <v>84173.517313999997</v>
       </c>
       <c r="AU8" s="1">
-        <v>23.381533</v>
+        <v>23.381533000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>1415.510000</v>
+        <v>1415.51</v>
       </c>
       <c r="AW8" s="1">
-        <v>-303.073000</v>
+        <v>-303.07299999999998</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>84184.228884</v>
+        <v>84184.228883999996</v>
       </c>
       <c r="AZ8" s="1">
         <v>23.384508</v>
       </c>
       <c r="BA8" s="1">
-        <v>1434.140000</v>
+        <v>1434.14</v>
       </c>
       <c r="BB8" s="1">
-        <v>-353.843000</v>
+        <v>-353.84300000000002</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>84195.128966</v>
+        <v>84195.128966000004</v>
       </c>
       <c r="BE8" s="1">
-        <v>23.387536</v>
+        <v>23.387536000000001</v>
       </c>
       <c r="BF8" s="1">
-        <v>1517.350000</v>
+        <v>1517.35</v>
       </c>
       <c r="BG8" s="1">
-        <v>-595.660000</v>
+        <v>-595.66</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>84206.251750</v>
+        <v>84206.251749999996</v>
       </c>
       <c r="BJ8" s="1">
         <v>23.390625</v>
       </c>
       <c r="BK8" s="1">
-        <v>1669.140000</v>
+        <v>1669.14</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1027.710000</v>
+        <v>-1027.71</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>84217.917693</v>
+        <v>84217.917692999996</v>
       </c>
       <c r="BO8" s="1">
-        <v>23.393866</v>
+        <v>23.393865999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1957.840000</v>
+        <v>1957.84</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1773.750000</v>
+        <v>-1773.75</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>84230.476359</v>
+        <v>84230.476358999993</v>
       </c>
       <c r="BT8" s="1">
-        <v>23.397355</v>
+        <v>23.397355000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>2335.030000</v>
+        <v>2335.0300000000002</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2634.710000</v>
+        <v>-2634.71</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
         <v>84242.108536</v>
       </c>
       <c r="BY8" s="1">
-        <v>23.400586</v>
+        <v>23.400586000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2806.560000</v>
+        <v>2806.56</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3568.980000</v>
+        <v>-3568.98</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>84253.513049</v>
+        <v>84253.513049000001</v>
       </c>
       <c r="CD8" s="1">
-        <v>23.403754</v>
+        <v>23.403753999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>4172.260000</v>
+        <v>4172.26</v>
       </c>
       <c r="CF8" s="1">
-        <v>-5820.460000</v>
+        <v>-5820.46</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>84078.989727</v>
+        <v>84078.989726999993</v>
       </c>
       <c r="B9" s="1">
-        <v>23.355275</v>
+        <v>23.355274999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>1238.200000</v>
+        <v>1238.2</v>
       </c>
       <c r="D9" s="1">
-        <v>-302.282000</v>
+        <v>-302.28199999999998</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>84089.314945</v>
+        <v>84089.314945000006</v>
       </c>
       <c r="G9" s="1">
-        <v>23.358143</v>
+        <v>23.358142999999998</v>
       </c>
       <c r="H9" s="1">
-        <v>1263.030000</v>
+        <v>1263.03</v>
       </c>
       <c r="I9" s="1">
-        <v>-261.051000</v>
+        <v>-261.05099999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>84100.178820</v>
+        <v>84100.178820000001</v>
       </c>
       <c r="L9" s="1">
-        <v>23.361161</v>
+        <v>23.361160999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>1297.820000</v>
+        <v>1297.82</v>
       </c>
       <c r="N9" s="1">
-        <v>-199.359000</v>
+        <v>-199.35900000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>84110.683589</v>
+        <v>84110.683588999993</v>
       </c>
       <c r="Q9" s="1">
         <v>23.364079</v>
       </c>
       <c r="R9" s="1">
-        <v>1309.470000</v>
+        <v>1309.47</v>
       </c>
       <c r="S9" s="1">
-        <v>-181.262000</v>
+        <v>-181.262</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>84121.215639</v>
+        <v>84121.215639000002</v>
       </c>
       <c r="V9" s="1">
-        <v>23.367004</v>
+        <v>23.367004000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>1322.380000</v>
+        <v>1322.38</v>
       </c>
       <c r="X9" s="1">
-        <v>-167.488000</v>
+        <v>-167.488</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>84131.715946</v>
+        <v>84131.715945999997</v>
       </c>
       <c r="AA9" s="1">
-        <v>23.369921</v>
+        <v>23.369921000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>1339.150000</v>
+        <v>1339.15</v>
       </c>
       <c r="AC9" s="1">
-        <v>-164.748000</v>
+        <v>-164.74799999999999</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>84142.317931</v>
+        <v>84142.317930999998</v>
       </c>
       <c r="AF9" s="1">
-        <v>23.372866</v>
+        <v>23.372865999999998</v>
       </c>
       <c r="AG9" s="1">
-        <v>1351.610000</v>
+        <v>1351.61</v>
       </c>
       <c r="AH9" s="1">
-        <v>-173.718000</v>
+        <v>-173.71799999999999</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>84152.905566</v>
+        <v>84152.905566000001</v>
       </c>
       <c r="AK9" s="1">
-        <v>23.375807</v>
+        <v>23.375806999999998</v>
       </c>
       <c r="AL9" s="1">
-        <v>1371.310000</v>
+        <v>1371.31</v>
       </c>
       <c r="AM9" s="1">
-        <v>-202.256000</v>
+        <v>-202.256</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>84163.233268</v>
+        <v>84163.233267999996</v>
       </c>
       <c r="AP9" s="1">
-        <v>23.378676</v>
+        <v>23.378675999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1391.980000</v>
+        <v>1391.98</v>
       </c>
       <c r="AR9" s="1">
-        <v>-244.716000</v>
+        <v>-244.71600000000001</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>84173.882338</v>
+        <v>84173.882337999996</v>
       </c>
       <c r="AU9" s="1">
-        <v>23.381634</v>
+        <v>23.381633999999998</v>
       </c>
       <c r="AV9" s="1">
-        <v>1415.470000</v>
+        <v>1415.47</v>
       </c>
       <c r="AW9" s="1">
-        <v>-303.037000</v>
+        <v>-303.03699999999998</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>84184.586536</v>
+        <v>84184.586536000003</v>
       </c>
       <c r="AZ9" s="1">
-        <v>23.384607</v>
+        <v>23.384606999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1434.140000</v>
+        <v>1434.14</v>
       </c>
       <c r="BB9" s="1">
-        <v>-353.843000</v>
+        <v>-353.84300000000002</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>84195.841754</v>
+        <v>84195.841753999994</v>
       </c>
       <c r="BE9" s="1">
-        <v>23.387734</v>
+        <v>23.387733999999998</v>
       </c>
       <c r="BF9" s="1">
-        <v>1517.320000</v>
+        <v>1517.32</v>
       </c>
       <c r="BG9" s="1">
-        <v>-595.703000</v>
+        <v>-595.70299999999997</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>84206.705591</v>
+        <v>84206.705591000005</v>
       </c>
       <c r="BJ9" s="1">
-        <v>23.390752</v>
+        <v>23.390751999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1669.130000</v>
+        <v>1669.13</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1027.690000</v>
+        <v>-1027.69</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>84218.409191</v>
+        <v>84218.409190999999</v>
       </c>
       <c r="BO9" s="1">
-        <v>23.394003</v>
+        <v>23.394003000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1957.850000</v>
+        <v>1957.85</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1773.580000</v>
+        <v>-1773.58</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>84230.899446</v>
+        <v>84230.899445999996</v>
       </c>
       <c r="BT9" s="1">
         <v>23.397472</v>
       </c>
       <c r="BU9" s="1">
-        <v>2334.830000</v>
+        <v>2334.83</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2633.890000</v>
+        <v>-2633.89</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>84242.475079</v>
+        <v>84242.475078999996</v>
       </c>
       <c r="BY9" s="1">
-        <v>23.400688</v>
+        <v>23.400687999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2806.890000</v>
+        <v>2806.89</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3568.720000</v>
+        <v>-3568.72</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>84254.070055</v>
+        <v>84254.070055000004</v>
       </c>
       <c r="CD9" s="1">
-        <v>23.403908</v>
+        <v>23.403908000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>4180.850000</v>
+        <v>4180.8500000000004</v>
       </c>
       <c r="CF9" s="1">
-        <v>-5811.260000</v>
+        <v>-5811.26</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>84079.251615</v>
+        <v>84079.251615000001</v>
       </c>
       <c r="B10" s="1">
-        <v>23.355348</v>
+        <v>23.355347999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>1238.620000</v>
+        <v>1238.6199999999999</v>
       </c>
       <c r="D10" s="1">
-        <v>-302.875000</v>
+        <v>-302.875</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>84089.659665</v>
+        <v>84089.659664999999</v>
       </c>
       <c r="G10" s="1">
-        <v>23.358239</v>
+        <v>23.358239000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>1262.890000</v>
+        <v>1262.8900000000001</v>
       </c>
       <c r="I10" s="1">
-        <v>-261.135000</v>
+        <v>-261.13499999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>84100.527507</v>
+        <v>84100.527507000006</v>
       </c>
       <c r="L10" s="1">
-        <v>23.361258</v>
+        <v>23.361257999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>1297.930000</v>
+        <v>1297.93</v>
       </c>
       <c r="N10" s="1">
-        <v>-199.442000</v>
+        <v>-199.44200000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>84111.038725</v>
+        <v>84111.038725000006</v>
       </c>
       <c r="Q10" s="1">
-        <v>23.364177</v>
+        <v>23.364177000000002</v>
       </c>
       <c r="R10" s="1">
-        <v>1309.530000</v>
+        <v>1309.53</v>
       </c>
       <c r="S10" s="1">
-        <v>-181.391000</v>
+        <v>-181.39099999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>84121.902598</v>
+        <v>84121.902598000001</v>
       </c>
       <c r="V10" s="1">
-        <v>23.367195</v>
+        <v>23.367194999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>1322.410000</v>
+        <v>1322.41</v>
       </c>
       <c r="X10" s="1">
-        <v>-167.577000</v>
+        <v>-167.577</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>84132.411350</v>
+        <v>84132.411349999995</v>
       </c>
       <c r="AA10" s="1">
-        <v>23.370114</v>
+        <v>23.370114000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>1339.200000</v>
+        <v>1339.2</v>
       </c>
       <c r="AC10" s="1">
-        <v>-164.782000</v>
+        <v>-164.78200000000001</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
         <v>84142.657691</v>
       </c>
       <c r="AF10" s="1">
-        <v>23.372960</v>
+        <v>23.372959999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>1351.610000</v>
+        <v>1351.61</v>
       </c>
       <c r="AH10" s="1">
-        <v>-173.662000</v>
+        <v>-173.66200000000001</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>84153.265170</v>
+        <v>84153.265169999999</v>
       </c>
       <c r="AK10" s="1">
-        <v>23.375907</v>
+        <v>23.375907000000002</v>
       </c>
       <c r="AL10" s="1">
-        <v>1371.290000</v>
+        <v>1371.29</v>
       </c>
       <c r="AM10" s="1">
-        <v>-202.307000</v>
+        <v>-202.30699999999999</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>84163.597328</v>
+        <v>84163.597328000003</v>
       </c>
       <c r="AP10" s="1">
-        <v>23.378777</v>
+        <v>23.378776999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1391.960000</v>
+        <v>1391.96</v>
       </c>
       <c r="AR10" s="1">
-        <v>-244.738000</v>
+        <v>-244.738</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>84174.568838</v>
+        <v>84174.568838000007</v>
       </c>
       <c r="AU10" s="1">
-        <v>23.381825</v>
+        <v>23.381824999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>1415.500000</v>
+        <v>1415.5</v>
       </c>
       <c r="AW10" s="1">
-        <v>-303.052000</v>
+        <v>-303.05200000000002</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>84185.273458</v>
+        <v>84185.273457999996</v>
       </c>
       <c r="AZ10" s="1">
         <v>23.384798</v>
       </c>
       <c r="BA10" s="1">
-        <v>1434.140000</v>
+        <v>1434.14</v>
       </c>
       <c r="BB10" s="1">
-        <v>-353.797000</v>
+        <v>-353.79700000000003</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>84196.236073</v>
+        <v>84196.236072999993</v>
       </c>
       <c r="BE10" s="1">
         <v>23.387843</v>
       </c>
       <c r="BF10" s="1">
-        <v>1517.370000</v>
+        <v>1517.37</v>
       </c>
       <c r="BG10" s="1">
-        <v>-595.681000</v>
+        <v>-595.68100000000004</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>84207.008648</v>
+        <v>84207.008648000003</v>
       </c>
       <c r="BJ10" s="1">
         <v>23.390836</v>
       </c>
       <c r="BK10" s="1">
-        <v>1669.070000</v>
+        <v>1669.07</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1027.720000</v>
+        <v>-1027.72</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>84218.820410</v>
+        <v>84218.82041</v>
       </c>
       <c r="BO10" s="1">
-        <v>23.394117</v>
+        <v>23.394117000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1957.780000</v>
+        <v>1957.78</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1773.770000</v>
+        <v>-1773.77</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>84231.315632</v>
+        <v>84231.315631999998</v>
       </c>
       <c r="BT10" s="1">
-        <v>23.397588</v>
+        <v>23.397587999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>2334.590000</v>
+        <v>2334.59</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2633.960000</v>
+        <v>-2633.96</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>84242.937847</v>
+        <v>84242.937846999994</v>
       </c>
       <c r="BY10" s="1">
-        <v>23.400816</v>
+        <v>23.400815999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2806.510000</v>
+        <v>2806.51</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3568.470000</v>
+        <v>-3568.47</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>84254.596807</v>
+        <v>84254.596806999994</v>
       </c>
       <c r="CD10" s="1">
         <v>23.404055</v>
       </c>
       <c r="CE10" s="1">
-        <v>4171.630000</v>
+        <v>4171.63</v>
       </c>
       <c r="CF10" s="1">
-        <v>-5821.540000</v>
+        <v>-5821.54</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>84079.592862</v>
+        <v>84079.592862000005</v>
       </c>
       <c r="B11" s="1">
         <v>23.355442</v>
       </c>
       <c r="C11" s="1">
-        <v>1238.230000</v>
+        <v>1238.23</v>
       </c>
       <c r="D11" s="1">
-        <v>-302.501000</v>
+        <v>-302.50099999999998</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>84090.006368</v>
+        <v>84090.006368000002</v>
       </c>
       <c r="G11" s="1">
         <v>23.358335</v>
       </c>
       <c r="H11" s="1">
-        <v>1262.760000</v>
+        <v>1262.76</v>
       </c>
       <c r="I11" s="1">
-        <v>-261.156000</v>
+        <v>-261.15600000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>84101.218434</v>
+        <v>84101.218433999995</v>
       </c>
       <c r="L11" s="1">
-        <v>23.361450</v>
+        <v>23.361450000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>1297.740000</v>
+        <v>1297.74</v>
       </c>
       <c r="N11" s="1">
-        <v>-199.656000</v>
+        <v>-199.65600000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>84111.726676</v>
+        <v>84111.726676000006</v>
       </c>
       <c r="Q11" s="1">
         <v>23.364369</v>
       </c>
       <c r="R11" s="1">
-        <v>1309.430000</v>
+        <v>1309.43</v>
       </c>
       <c r="S11" s="1">
-        <v>-181.442000</v>
+        <v>-181.44200000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>84122.240871</v>
+        <v>84122.240871000002</v>
       </c>
       <c r="V11" s="1">
         <v>23.367289</v>
       </c>
       <c r="W11" s="1">
-        <v>1322.450000</v>
+        <v>1322.45</v>
       </c>
       <c r="X11" s="1">
-        <v>-167.417000</v>
+        <v>-167.417</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>84132.762504</v>
+        <v>84132.762503999998</v>
       </c>
       <c r="AA11" s="1">
-        <v>23.370212</v>
+        <v>23.370211999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>1339.200000</v>
+        <v>1339.2</v>
       </c>
       <c r="AC11" s="1">
-        <v>-164.605000</v>
+        <v>-164.60499999999999</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>84143.005882</v>
+        <v>84143.005881999998</v>
       </c>
       <c r="AF11" s="1">
-        <v>23.373057</v>
+        <v>23.373056999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>1351.610000</v>
+        <v>1351.61</v>
       </c>
       <c r="AH11" s="1">
-        <v>-173.660000</v>
+        <v>-173.66</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>84153.614316</v>
+        <v>84153.614316000007</v>
       </c>
       <c r="AK11" s="1">
-        <v>23.376004</v>
+        <v>23.376003999999998</v>
       </c>
       <c r="AL11" s="1">
-        <v>1371.340000</v>
+        <v>1371.34</v>
       </c>
       <c r="AM11" s="1">
-        <v>-202.290000</v>
+        <v>-202.29</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>84164.282766</v>
+        <v>84164.282766000004</v>
       </c>
       <c r="AP11" s="1">
-        <v>23.378967</v>
+        <v>23.378966999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1392.020000</v>
+        <v>1392.02</v>
       </c>
       <c r="AR11" s="1">
-        <v>-244.713000</v>
+        <v>-244.71299999999999</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>84175.011730</v>
+        <v>84175.011729999998</v>
       </c>
       <c r="AU11" s="1">
-        <v>23.381948</v>
+        <v>23.381948000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>1415.510000</v>
+        <v>1415.51</v>
       </c>
       <c r="AW11" s="1">
-        <v>-303.030000</v>
+        <v>-303.02999999999997</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>84185.663810</v>
+        <v>84185.663809999998</v>
       </c>
       <c r="AZ11" s="1">
-        <v>23.384907</v>
+        <v>23.384906999999998</v>
       </c>
       <c r="BA11" s="1">
-        <v>1434.150000</v>
+        <v>1434.15</v>
       </c>
       <c r="BB11" s="1">
-        <v>-353.822000</v>
+        <v>-353.822</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>84196.597621</v>
+        <v>84196.597620999994</v>
       </c>
       <c r="BE11" s="1">
-        <v>23.387944</v>
+        <v>23.387944000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1517.350000</v>
+        <v>1517.35</v>
       </c>
       <c r="BG11" s="1">
-        <v>-595.713000</v>
+        <v>-595.71299999999997</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>84207.403001</v>
+        <v>84207.403000999999</v>
       </c>
       <c r="BJ11" s="1">
-        <v>23.390945</v>
+        <v>23.390944999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1669.070000</v>
+        <v>1669.07</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1027.780000</v>
+        <v>-1027.78</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>84219.215687</v>
+        <v>84219.215687000004</v>
       </c>
       <c r="BO11" s="1">
-        <v>23.394227</v>
+        <v>23.394227000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1957.690000</v>
+        <v>1957.69</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1773.630000</v>
+        <v>-1773.63</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>84231.750616</v>
+        <v>84231.750616000005</v>
       </c>
       <c r="BT11" s="1">
-        <v>23.397709</v>
+        <v>23.397708999999999</v>
       </c>
       <c r="BU11" s="1">
-        <v>2334.360000</v>
+        <v>2334.36</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2633.730000</v>
+        <v>-2633.73</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>84243.335638</v>
+        <v>84243.335638000004</v>
       </c>
       <c r="BY11" s="1">
-        <v>23.400927</v>
+        <v>23.400926999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2806.430000</v>
+        <v>2806.43</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3569.420000</v>
+        <v>-3569.42</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>84255.115126</v>
+        <v>84255.115126000004</v>
       </c>
       <c r="CD11" s="1">
-        <v>23.404199</v>
+        <v>23.404198999999998</v>
       </c>
       <c r="CE11" s="1">
-        <v>4171.840000</v>
+        <v>4171.84</v>
       </c>
       <c r="CF11" s="1">
-        <v>-5817.700000</v>
+        <v>-5817.7</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>84079.936866</v>
+        <v>84079.936866000004</v>
       </c>
       <c r="B12" s="1">
-        <v>23.355538</v>
+        <v>23.355537999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>1238.320000</v>
+        <v>1238.32</v>
       </c>
       <c r="D12" s="1">
-        <v>-302.605000</v>
+        <v>-302.60500000000002</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>84090.699776</v>
+        <v>84090.699775999994</v>
       </c>
       <c r="G12" s="1">
         <v>23.358528</v>
       </c>
       <c r="H12" s="1">
-        <v>1262.770000</v>
+        <v>1262.77</v>
       </c>
       <c r="I12" s="1">
-        <v>-261.390000</v>
+        <v>-261.39</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>84101.563649</v>
+        <v>84101.563649000003</v>
       </c>
       <c r="L12" s="1">
         <v>23.361545</v>
       </c>
       <c r="M12" s="1">
-        <v>1297.750000</v>
+        <v>1297.75</v>
       </c>
       <c r="N12" s="1">
-        <v>-199.502000</v>
+        <v>-199.50200000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>84112.079862</v>
+        <v>84112.079861999999</v>
       </c>
       <c r="Q12" s="1">
-        <v>23.364467</v>
+        <v>23.364467000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>1309.390000</v>
+        <v>1309.3900000000001</v>
       </c>
       <c r="S12" s="1">
-        <v>-181.359000</v>
+        <v>-181.35900000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>84122.586101</v>
+        <v>84122.586100999994</v>
       </c>
       <c r="V12" s="1">
-        <v>23.367385</v>
+        <v>23.367384999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>1322.360000</v>
+        <v>1322.36</v>
       </c>
       <c r="X12" s="1">
-        <v>-167.562000</v>
+        <v>-167.56200000000001</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>84133.112185</v>
+        <v>84133.112185000005</v>
       </c>
       <c r="AA12" s="1">
-        <v>23.370309</v>
+        <v>23.370308999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>1339.210000</v>
+        <v>1339.21</v>
       </c>
       <c r="AC12" s="1">
-        <v>-164.720000</v>
+        <v>-164.72</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>84143.716671</v>
+        <v>84143.716671000002</v>
       </c>
       <c r="AF12" s="1">
         <v>23.373255</v>
       </c>
       <c r="AG12" s="1">
-        <v>1351.560000</v>
+        <v>1351.56</v>
       </c>
       <c r="AH12" s="1">
-        <v>-173.684000</v>
+        <v>-173.684</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>84154.310711</v>
+        <v>84154.310710999998</v>
       </c>
       <c r="AK12" s="1">
-        <v>23.376197</v>
+        <v>23.376197000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>1371.330000</v>
+        <v>1371.33</v>
       </c>
       <c r="AM12" s="1">
-        <v>-202.280000</v>
+        <v>-202.28</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>84164.704862</v>
+        <v>84164.704861999999</v>
       </c>
       <c r="AP12" s="1">
         <v>23.379085</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1391.970000</v>
+        <v>1391.97</v>
       </c>
       <c r="AR12" s="1">
-        <v>-244.705000</v>
+        <v>-244.70500000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>84175.375328</v>
+        <v>84175.375327999995</v>
       </c>
       <c r="AU12" s="1">
-        <v>23.382049</v>
+        <v>23.382048999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>1415.520000</v>
+        <v>1415.52</v>
       </c>
       <c r="AW12" s="1">
-        <v>-303.033000</v>
+        <v>-303.03300000000002</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>84186.021952</v>
+        <v>84186.021951999996</v>
       </c>
       <c r="AZ12" s="1">
-        <v>23.385006</v>
+        <v>23.385006000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1434.150000</v>
+        <v>1434.15</v>
       </c>
       <c r="BB12" s="1">
-        <v>-353.809000</v>
+        <v>-353.80900000000003</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
         <v>84196.954243</v>
@@ -3216,73 +3632,73 @@
         <v>23.388043</v>
       </c>
       <c r="BF12" s="1">
-        <v>1517.350000</v>
+        <v>1517.35</v>
       </c>
       <c r="BG12" s="1">
-        <v>-595.709000</v>
+        <v>-595.70899999999995</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>84207.851845</v>
+        <v>84207.851844999997</v>
       </c>
       <c r="BJ12" s="1">
-        <v>23.391070</v>
+        <v>23.391069999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1669.060000</v>
+        <v>1669.06</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1027.690000</v>
+        <v>-1027.69</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>84219.710197</v>
+        <v>84219.710196999993</v>
       </c>
       <c r="BO12" s="1">
-        <v>23.394364</v>
+        <v>23.394363999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1957.760000</v>
+        <v>1957.76</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1773.640000</v>
+        <v>-1773.64</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>84232.147876</v>
+        <v>84232.147876000003</v>
       </c>
       <c r="BT12" s="1">
-        <v>23.397819</v>
+        <v>23.397818999999998</v>
       </c>
       <c r="BU12" s="1">
-        <v>2334.220000</v>
+        <v>2334.2199999999998</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2633.030000</v>
+        <v>-2633.03</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>84243.785017</v>
+        <v>84243.785017000002</v>
       </c>
       <c r="BY12" s="1">
-        <v>23.401051</v>
+        <v>23.401050999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2807.100000</v>
+        <v>2807.1</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3568.660000</v>
+        <v>-3568.66</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>84255.671638</v>
@@ -3291,135 +3707,135 @@
         <v>23.404353</v>
       </c>
       <c r="CE12" s="1">
-        <v>4183.320000</v>
+        <v>4183.32</v>
       </c>
       <c r="CF12" s="1">
-        <v>-5812.380000</v>
+        <v>-5812.38</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>84080.617100</v>
+        <v>84080.617100000003</v>
       </c>
       <c r="B13" s="1">
-        <v>23.355727</v>
+        <v>23.355727000000002</v>
       </c>
       <c r="C13" s="1">
-        <v>1238.050000</v>
+        <v>1238.05</v>
       </c>
       <c r="D13" s="1">
-        <v>-302.544000</v>
+        <v>-302.54399999999998</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>84091.046975</v>
+        <v>84091.046975000005</v>
       </c>
       <c r="G13" s="1">
-        <v>23.358624</v>
+        <v>23.358623999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>1263.060000</v>
+        <v>1263.06</v>
       </c>
       <c r="I13" s="1">
-        <v>-261.361000</v>
+        <v>-261.36099999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>84101.914331</v>
+        <v>84101.914331000007</v>
       </c>
       <c r="L13" s="1">
-        <v>23.361643</v>
+        <v>23.361643000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>1297.710000</v>
+        <v>1297.71</v>
       </c>
       <c r="N13" s="1">
-        <v>-199.428000</v>
+        <v>-199.428</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>84112.431492</v>
+        <v>84112.431492000003</v>
       </c>
       <c r="Q13" s="1">
-        <v>23.364564</v>
+        <v>23.364564000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>1309.470000</v>
+        <v>1309.47</v>
       </c>
       <c r="S13" s="1">
-        <v>-181.340000</v>
+        <v>-181.34</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>84123.251717</v>
+        <v>84123.251717000006</v>
       </c>
       <c r="V13" s="1">
-        <v>23.367570</v>
+        <v>23.367570000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>1322.410000</v>
+        <v>1322.41</v>
       </c>
       <c r="X13" s="1">
-        <v>-167.511000</v>
+        <v>-167.511</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>84133.783044</v>
+        <v>84133.783043999996</v>
       </c>
       <c r="AA13" s="1">
-        <v>23.370495</v>
+        <v>23.370494999999998</v>
       </c>
       <c r="AB13" s="1">
-        <v>1339.330000</v>
+        <v>1339.33</v>
       </c>
       <c r="AC13" s="1">
-        <v>-164.728000</v>
+        <v>-164.72800000000001</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
         <v>84144.049497</v>
       </c>
       <c r="AF13" s="1">
-        <v>23.373347</v>
+        <v>23.373346999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>1351.620000</v>
+        <v>1351.62</v>
       </c>
       <c r="AH13" s="1">
-        <v>-173.747000</v>
+        <v>-173.74700000000001</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>84154.660875</v>
+        <v>84154.660875000001</v>
       </c>
       <c r="AK13" s="1">
-        <v>23.376295</v>
+        <v>23.376294999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>1371.320000</v>
+        <v>1371.32</v>
       </c>
       <c r="AM13" s="1">
-        <v>-202.306000</v>
+        <v>-202.30600000000001</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>84165.066477</v>
@@ -3428,2281 +3844,2281 @@
         <v>23.379185</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1391.970000</v>
+        <v>1391.97</v>
       </c>
       <c r="AR13" s="1">
-        <v>-244.755000</v>
+        <v>-244.755</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>84175.738367</v>
+        <v>84175.738366999998</v>
       </c>
       <c r="AU13" s="1">
-        <v>23.382150</v>
+        <v>23.382149999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>1415.500000</v>
+        <v>1415.5</v>
       </c>
       <c r="AW13" s="1">
-        <v>-303.045000</v>
+        <v>-303.04500000000002</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>84186.383010</v>
+        <v>84186.383010000005</v>
       </c>
       <c r="AZ13" s="1">
         <v>23.385106</v>
       </c>
       <c r="BA13" s="1">
-        <v>1434.150000</v>
+        <v>1434.15</v>
       </c>
       <c r="BB13" s="1">
-        <v>-353.863000</v>
+        <v>-353.863</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>84197.404114</v>
+        <v>84197.404114000004</v>
       </c>
       <c r="BE13" s="1">
         <v>23.388168</v>
       </c>
       <c r="BF13" s="1">
-        <v>1517.350000</v>
+        <v>1517.35</v>
       </c>
       <c r="BG13" s="1">
-        <v>-595.663000</v>
+        <v>-595.66300000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>84208.148489</v>
+        <v>84208.148488999999</v>
       </c>
       <c r="BJ13" s="1">
-        <v>23.391152</v>
+        <v>23.391152000000002</v>
       </c>
       <c r="BK13" s="1">
-        <v>1669.100000</v>
+        <v>1669.1</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1027.700000</v>
+        <v>-1027.7</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>84220.044998</v>
+        <v>84220.044997999998</v>
       </c>
       <c r="BO13" s="1">
-        <v>23.394457</v>
+        <v>23.394456999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1957.760000</v>
+        <v>1957.76</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1773.600000</v>
+        <v>-1773.6</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>84232.553108</v>
+        <v>84232.553107999993</v>
       </c>
       <c r="BT13" s="1">
         <v>23.397931</v>
       </c>
       <c r="BU13" s="1">
-        <v>2334.060000</v>
+        <v>2334.06</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2632.770000</v>
+        <v>-2632.77</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>84244.212070</v>
+        <v>84244.212069999994</v>
       </c>
       <c r="BY13" s="1">
-        <v>23.401170</v>
+        <v>23.40117</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2806.220000</v>
+        <v>2806.22</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3568.720000</v>
+        <v>-3568.72</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>84256.195415</v>
+        <v>84256.195414999995</v>
       </c>
       <c r="CD13" s="1">
-        <v>23.404499</v>
+        <v>23.404499000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>4172.030000</v>
+        <v>4172.03</v>
       </c>
       <c r="CF13" s="1">
-        <v>-5818.890000</v>
+        <v>-5818.89</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>84080.960332</v>
+        <v>84080.960332000002</v>
       </c>
       <c r="B14" s="1">
         <v>23.355822</v>
       </c>
       <c r="C14" s="1">
-        <v>1238.490000</v>
+        <v>1238.49</v>
       </c>
       <c r="D14" s="1">
-        <v>-302.366000</v>
+        <v>-302.36599999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>84091.391694</v>
+        <v>84091.391694000005</v>
       </c>
       <c r="G14" s="1">
-        <v>23.358720</v>
+        <v>23.358720000000002</v>
       </c>
       <c r="H14" s="1">
-        <v>1262.940000</v>
+        <v>1262.94</v>
       </c>
       <c r="I14" s="1">
-        <v>-261.201000</v>
+        <v>-261.20100000000002</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>84102.592352</v>
+        <v>84102.592352000007</v>
       </c>
       <c r="L14" s="1">
-        <v>23.361831</v>
+        <v>23.361830999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>1297.860000</v>
+        <v>1297.8599999999999</v>
       </c>
       <c r="N14" s="1">
-        <v>-199.696000</v>
+        <v>-199.696</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>84113.120947</v>
+        <v>84113.120947000003</v>
       </c>
       <c r="Q14" s="1">
         <v>23.364756</v>
       </c>
       <c r="R14" s="1">
-        <v>1309.520000</v>
+        <v>1309.52</v>
       </c>
       <c r="S14" s="1">
-        <v>-181.318000</v>
+        <v>-181.31800000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>84123.615780</v>
+        <v>84123.615779999993</v>
       </c>
       <c r="V14" s="1">
-        <v>23.367671</v>
+        <v>23.367671000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>1322.420000</v>
+        <v>1322.42</v>
       </c>
       <c r="X14" s="1">
-        <v>-167.446000</v>
+        <v>-167.446</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>84134.155766</v>
+        <v>84134.155765999996</v>
       </c>
       <c r="AA14" s="1">
-        <v>23.370599</v>
+        <v>23.370598999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>1339.130000</v>
+        <v>1339.13</v>
       </c>
       <c r="AC14" s="1">
-        <v>-164.720000</v>
+        <v>-164.72</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>84144.391737</v>
+        <v>84144.391736999998</v>
       </c>
       <c r="AF14" s="1">
-        <v>23.373442</v>
+        <v>23.373442000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>1351.550000</v>
+        <v>1351.55</v>
       </c>
       <c r="AH14" s="1">
-        <v>-173.734000</v>
+        <v>-173.73400000000001</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>84155.006623</v>
+        <v>84155.006622999994</v>
       </c>
       <c r="AK14" s="1">
-        <v>23.376391</v>
+        <v>23.376391000000002</v>
       </c>
       <c r="AL14" s="1">
-        <v>1371.310000</v>
+        <v>1371.31</v>
       </c>
       <c r="AM14" s="1">
-        <v>-202.281000</v>
+        <v>-202.28100000000001</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>84165.425054</v>
+        <v>84165.425054000007</v>
       </c>
       <c r="AP14" s="1">
-        <v>23.379285</v>
+        <v>23.379284999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1391.970000</v>
+        <v>1391.97</v>
       </c>
       <c r="AR14" s="1">
-        <v>-244.695000</v>
+        <v>-244.69499999999999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>84176.174350</v>
+        <v>84176.174350000001</v>
       </c>
       <c r="AU14" s="1">
-        <v>23.382271</v>
+        <v>23.382270999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>1415.510000</v>
+        <v>1415.51</v>
       </c>
       <c r="AW14" s="1">
-        <v>-303.032000</v>
+        <v>-303.03199999999998</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>84186.831889</v>
+        <v>84186.831888999994</v>
       </c>
       <c r="AZ14" s="1">
-        <v>23.385231</v>
+        <v>23.385231000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>1434.130000</v>
+        <v>1434.13</v>
       </c>
       <c r="BB14" s="1">
-        <v>-353.834000</v>
+        <v>-353.834</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>84197.677410</v>
+        <v>84197.677410000004</v>
       </c>
       <c r="BE14" s="1">
         <v>23.388244</v>
       </c>
       <c r="BF14" s="1">
-        <v>1517.380000</v>
+        <v>1517.38</v>
       </c>
       <c r="BG14" s="1">
-        <v>-595.676000</v>
+        <v>-595.67600000000004</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>84208.522437</v>
+        <v>84208.522437000007</v>
       </c>
       <c r="BJ14" s="1">
-        <v>23.391256</v>
+        <v>23.391255999999998</v>
       </c>
       <c r="BK14" s="1">
-        <v>1668.970000</v>
+        <v>1668.97</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1027.680000</v>
+        <v>-1027.68</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>84220.456676</v>
+        <v>84220.456676000002</v>
       </c>
       <c r="BO14" s="1">
-        <v>23.394571</v>
+        <v>23.394570999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1957.790000</v>
+        <v>1957.79</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1773.650000</v>
+        <v>-1773.65</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>84232.975700</v>
+        <v>84232.975699999995</v>
       </c>
       <c r="BT14" s="1">
         <v>23.398049</v>
       </c>
       <c r="BU14" s="1">
-        <v>2333.760000</v>
+        <v>2333.7600000000002</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2632.000000</v>
+        <v>-2632</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>84244.672853</v>
+        <v>84244.672852999996</v>
       </c>
       <c r="BY14" s="1">
-        <v>23.401298</v>
+        <v>23.401298000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2805.640000</v>
+        <v>2805.64</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3568.570000</v>
+        <v>-3568.57</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>84256.713243</v>
+        <v>84256.713243000006</v>
       </c>
       <c r="CD14" s="1">
         <v>23.404643</v>
       </c>
       <c r="CE14" s="1">
-        <v>4172.860000</v>
+        <v>4172.8599999999997</v>
       </c>
       <c r="CF14" s="1">
-        <v>-5814.500000</v>
+        <v>-5814.5</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>84081.632411</v>
+        <v>84081.632410999999</v>
       </c>
       <c r="B15" s="1">
         <v>23.356009</v>
       </c>
       <c r="C15" s="1">
-        <v>1238.320000</v>
+        <v>1238.32</v>
       </c>
       <c r="D15" s="1">
-        <v>-302.631000</v>
+        <v>-302.63099999999997</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>84092.070222</v>
+        <v>84092.070221999995</v>
       </c>
       <c r="G15" s="1">
         <v>23.358908</v>
       </c>
       <c r="H15" s="1">
-        <v>1262.850000</v>
+        <v>1262.8499999999999</v>
       </c>
       <c r="I15" s="1">
-        <v>-261.406000</v>
+        <v>-261.40600000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>84102.946500</v>
+        <v>84102.946500000005</v>
       </c>
       <c r="L15" s="1">
-        <v>23.361930</v>
+        <v>23.361930000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>1297.960000</v>
+        <v>1297.96</v>
       </c>
       <c r="N15" s="1">
-        <v>-199.544000</v>
+        <v>-199.54400000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>84113.474081</v>
+        <v>84113.474080999993</v>
       </c>
       <c r="Q15" s="1">
-        <v>23.364854</v>
+        <v>23.364854000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>1309.540000</v>
+        <v>1309.54</v>
       </c>
       <c r="S15" s="1">
-        <v>-181.342000</v>
+        <v>-181.34200000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>84123.960995</v>
+        <v>84123.960995000001</v>
       </c>
       <c r="V15" s="1">
-        <v>23.367767</v>
+        <v>23.367767000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>1322.490000</v>
+        <v>1322.49</v>
       </c>
       <c r="X15" s="1">
-        <v>-167.715000</v>
+        <v>-167.715</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>84134.505462</v>
+        <v>84134.505462000001</v>
       </c>
       <c r="AA15" s="1">
-        <v>23.370696</v>
+        <v>23.370695999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>1339.140000</v>
+        <v>1339.14</v>
       </c>
       <c r="AC15" s="1">
-        <v>-164.806000</v>
+        <v>-164.80600000000001</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>84144.741385</v>
+        <v>84144.741385000001</v>
       </c>
       <c r="AF15" s="1">
-        <v>23.373539</v>
+        <v>23.373539000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>1351.530000</v>
+        <v>1351.53</v>
       </c>
       <c r="AH15" s="1">
-        <v>-173.694000</v>
+        <v>-173.69399999999999</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>84155.434138</v>
+        <v>84155.434137999997</v>
       </c>
       <c r="AK15" s="1">
-        <v>23.376509</v>
+        <v>23.376508999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>1371.310000</v>
+        <v>1371.31</v>
       </c>
       <c r="AM15" s="1">
-        <v>-202.231000</v>
+        <v>-202.23099999999999</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>84165.855085</v>
+        <v>84165.855085000003</v>
       </c>
       <c r="AP15" s="1">
-        <v>23.379404</v>
+        <v>23.379404000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1391.930000</v>
+        <v>1391.93</v>
       </c>
       <c r="AR15" s="1">
-        <v>-244.700000</v>
+        <v>-244.7</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>84176.466990</v>
+        <v>84176.466990000001</v>
       </c>
       <c r="AU15" s="1">
-        <v>23.382352</v>
+        <v>23.382352000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>1415.510000</v>
+        <v>1415.51</v>
       </c>
       <c r="AW15" s="1">
-        <v>-303.039000</v>
+        <v>-303.03899999999999</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>84187.099728</v>
+        <v>84187.099728000001</v>
       </c>
       <c r="AZ15" s="1">
-        <v>23.385305</v>
+        <v>23.385304999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1434.160000</v>
+        <v>1434.16</v>
       </c>
       <c r="BB15" s="1">
-        <v>-353.786000</v>
+        <v>-353.786</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>84198.039491</v>
+        <v>84198.039491000003</v>
       </c>
       <c r="BE15" s="1">
         <v>23.388344</v>
       </c>
       <c r="BF15" s="1">
-        <v>1517.320000</v>
+        <v>1517.32</v>
       </c>
       <c r="BG15" s="1">
-        <v>-595.693000</v>
+        <v>-595.69299999999998</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>84208.910307</v>
+        <v>84208.910306999998</v>
       </c>
       <c r="BJ15" s="1">
-        <v>23.391364</v>
+        <v>23.391363999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1669.040000</v>
+        <v>1669.04</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1027.690000</v>
+        <v>-1027.69</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>84220.858933</v>
+        <v>84220.858932999996</v>
       </c>
       <c r="BO15" s="1">
-        <v>23.394683</v>
+        <v>23.394683000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1957.790000</v>
+        <v>1957.79</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1773.560000</v>
+        <v>-1773.56</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>84233.805010</v>
+        <v>84233.805009999996</v>
       </c>
       <c r="BT15" s="1">
-        <v>23.398279</v>
+        <v>23.398278999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>2334.240000</v>
+        <v>2334.2399999999998</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2631.720000</v>
+        <v>-2631.72</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>84245.124212</v>
+        <v>84245.124211999995</v>
       </c>
       <c r="BY15" s="1">
-        <v>23.401423</v>
+        <v>23.401423000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2805.760000</v>
+        <v>2805.76</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3568.310000</v>
+        <v>-3568.31</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>84257.273219</v>
+        <v>84257.273218999995</v>
       </c>
       <c r="CD15" s="1">
         <v>23.404798</v>
       </c>
       <c r="CE15" s="1">
-        <v>4185.480000</v>
+        <v>4185.4799999999996</v>
       </c>
       <c r="CF15" s="1">
-        <v>-5815.060000</v>
+        <v>-5815.06</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>84081.988544</v>
+        <v>84081.988544000007</v>
       </c>
       <c r="B16" s="1">
-        <v>23.356108</v>
+        <v>23.356107999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>1238.470000</v>
+        <v>1238.47</v>
       </c>
       <c r="D16" s="1">
-        <v>-302.490000</v>
+        <v>-302.49</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>84092.426845</v>
+        <v>84092.426844999995</v>
       </c>
       <c r="G16" s="1">
-        <v>23.359007</v>
+        <v>23.359006999999998</v>
       </c>
       <c r="H16" s="1">
-        <v>1262.340000</v>
+        <v>1262.3399999999999</v>
       </c>
       <c r="I16" s="1">
-        <v>-261.147000</v>
+        <v>-261.14699999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>84103.290225</v>
+        <v>84103.290225000004</v>
       </c>
       <c r="L16" s="1">
-        <v>23.362025</v>
+        <v>23.362024999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>1297.680000</v>
+        <v>1297.68</v>
       </c>
       <c r="N16" s="1">
-        <v>-199.273000</v>
+        <v>-199.273</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>84113.823761</v>
+        <v>84113.823761000007</v>
       </c>
       <c r="Q16" s="1">
-        <v>23.364951</v>
+        <v>23.364951000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>1309.560000</v>
+        <v>1309.56</v>
       </c>
       <c r="S16" s="1">
-        <v>-181.337000</v>
+        <v>-181.33699999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>84124.304760</v>
+        <v>84124.304759999999</v>
       </c>
       <c r="V16" s="1">
-        <v>23.367862</v>
+        <v>23.367861999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>1322.240000</v>
+        <v>1322.24</v>
       </c>
       <c r="X16" s="1">
-        <v>-167.567000</v>
+        <v>-167.56700000000001</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>84134.878437</v>
+        <v>84134.878437000007</v>
       </c>
       <c r="AA16" s="1">
-        <v>23.370800</v>
+        <v>23.370799999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>1339.210000</v>
+        <v>1339.21</v>
       </c>
       <c r="AC16" s="1">
-        <v>-164.735000</v>
+        <v>-164.73500000000001</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>84145.178855</v>
+        <v>84145.178855000006</v>
       </c>
       <c r="AF16" s="1">
-        <v>23.373661</v>
+        <v>23.373660999999998</v>
       </c>
       <c r="AG16" s="1">
-        <v>1351.600000</v>
+        <v>1351.6</v>
       </c>
       <c r="AH16" s="1">
-        <v>-173.695000</v>
+        <v>-173.69499999999999</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>84155.707434</v>
+        <v>84155.707433999996</v>
       </c>
       <c r="AK16" s="1">
-        <v>23.376585</v>
+        <v>23.376584999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>1371.310000</v>
+        <v>1371.31</v>
       </c>
       <c r="AM16" s="1">
-        <v>-202.276000</v>
+        <v>-202.27600000000001</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>84166.148717</v>
+        <v>84166.148717000004</v>
       </c>
       <c r="AP16" s="1">
         <v>23.379486</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1391.960000</v>
+        <v>1391.96</v>
       </c>
       <c r="AR16" s="1">
-        <v>-244.712000</v>
+        <v>-244.71199999999999</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>84176.832046</v>
+        <v>84176.832045999996</v>
       </c>
       <c r="AU16" s="1">
-        <v>23.382453</v>
+        <v>23.382453000000002</v>
       </c>
       <c r="AV16" s="1">
-        <v>1415.490000</v>
+        <v>1415.49</v>
       </c>
       <c r="AW16" s="1">
-        <v>-303.025000</v>
+        <v>-303.02499999999998</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>84187.445937</v>
+        <v>84187.445936999997</v>
       </c>
       <c r="AZ16" s="1">
-        <v>23.385402</v>
+        <v>23.385401999999999</v>
       </c>
       <c r="BA16" s="1">
-        <v>1434.150000</v>
+        <v>1434.15</v>
       </c>
       <c r="BB16" s="1">
-        <v>-353.823000</v>
+        <v>-353.82299999999998</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>84198.399091</v>
+        <v>84198.399090999999</v>
       </c>
       <c r="BE16" s="1">
         <v>23.388444</v>
       </c>
       <c r="BF16" s="1">
-        <v>1517.330000</v>
+        <v>1517.33</v>
       </c>
       <c r="BG16" s="1">
-        <v>-595.631000</v>
+        <v>-595.63099999999997</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>84209.678114</v>
+        <v>84209.678113999995</v>
       </c>
       <c r="BJ16" s="1">
-        <v>23.391577</v>
+        <v>23.391577000000002</v>
       </c>
       <c r="BK16" s="1">
-        <v>1669.080000</v>
+        <v>1669.08</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1027.710000</v>
+        <v>-1027.71</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>84221.673858</v>
+        <v>84221.673857999995</v>
       </c>
       <c r="BO16" s="1">
-        <v>23.394909</v>
+        <v>23.394908999999998</v>
       </c>
       <c r="BP16" s="1">
-        <v>1957.750000</v>
+        <v>1957.75</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1773.620000</v>
+        <v>-1773.62</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>84234.242482</v>
+        <v>84234.242482000001</v>
       </c>
       <c r="BT16" s="1">
         <v>23.398401</v>
       </c>
       <c r="BU16" s="1">
-        <v>2334.010000</v>
+        <v>2334.0100000000002</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2631.280000</v>
+        <v>-2631.28</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>84245.569656</v>
+        <v>84245.569656000007</v>
       </c>
       <c r="BY16" s="1">
-        <v>23.401547</v>
+        <v>23.401547000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2805.730000</v>
+        <v>2805.73</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3568.790000</v>
+        <v>-3568.79</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>84257.783603</v>
+        <v>84257.783603000003</v>
       </c>
       <c r="CD16" s="1">
-        <v>23.404940</v>
+        <v>23.40494</v>
       </c>
       <c r="CE16" s="1">
-        <v>4172.680000</v>
+        <v>4172.68</v>
       </c>
       <c r="CF16" s="1">
-        <v>-5816.760000</v>
+        <v>-5816.76</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>84082.336731</v>
+        <v>84082.336731000003</v>
       </c>
       <c r="B17" s="1">
-        <v>23.356205</v>
+        <v>23.356204999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>1238.530000</v>
+        <v>1238.53</v>
       </c>
       <c r="D17" s="1">
-        <v>-302.414000</v>
+        <v>-302.41399999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>84092.774045</v>
+        <v>84092.774044999998</v>
       </c>
       <c r="G17" s="1">
-        <v>23.359104</v>
+        <v>23.359103999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>1262.870000</v>
+        <v>1262.8699999999999</v>
       </c>
       <c r="I17" s="1">
-        <v>-261.601000</v>
+        <v>-261.601</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>84103.637918</v>
+        <v>84103.637917999993</v>
       </c>
       <c r="L17" s="1">
-        <v>23.362122</v>
+        <v>23.362121999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>1297.910000</v>
+        <v>1297.9100000000001</v>
       </c>
       <c r="N17" s="1">
-        <v>-199.318000</v>
+        <v>-199.31800000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>84114.172945</v>
+        <v>84114.172944999998</v>
       </c>
       <c r="Q17" s="1">
-        <v>23.365048</v>
+        <v>23.365048000000002</v>
       </c>
       <c r="R17" s="1">
-        <v>1309.520000</v>
+        <v>1309.52</v>
       </c>
       <c r="S17" s="1">
-        <v>-181.346000</v>
+        <v>-181.346</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>84124.740707</v>
+        <v>84124.740707000004</v>
       </c>
       <c r="V17" s="1">
         <v>23.367984</v>
       </c>
       <c r="W17" s="1">
-        <v>1322.360000</v>
+        <v>1322.36</v>
       </c>
       <c r="X17" s="1">
-        <v>-167.542000</v>
+        <v>-167.542</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>84135.350151</v>
+        <v>84135.350151000006</v>
       </c>
       <c r="AA17" s="1">
-        <v>23.370931</v>
+        <v>23.370930999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>1339.110000</v>
+        <v>1339.11</v>
       </c>
       <c r="AC17" s="1">
-        <v>-164.677000</v>
+        <v>-164.67699999999999</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>84145.456120</v>
+        <v>84145.456120000003</v>
       </c>
       <c r="AF17" s="1">
-        <v>23.373738</v>
+        <v>23.373737999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>1351.550000</v>
+        <v>1351.55</v>
       </c>
       <c r="AH17" s="1">
-        <v>-173.687000</v>
+        <v>-173.68700000000001</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>84156.054633</v>
+        <v>84156.054633000007</v>
       </c>
       <c r="AK17" s="1">
-        <v>23.376682</v>
+        <v>23.376681999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>1371.310000</v>
+        <v>1371.31</v>
       </c>
       <c r="AM17" s="1">
-        <v>-202.286000</v>
+        <v>-202.286</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>84166.508316</v>
+        <v>84166.508316000007</v>
       </c>
       <c r="AP17" s="1">
         <v>23.379586</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1392.000000</v>
+        <v>1392</v>
       </c>
       <c r="AR17" s="1">
-        <v>-244.735000</v>
+        <v>-244.73500000000001</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>84177.195117</v>
+        <v>84177.195116999996</v>
       </c>
       <c r="AU17" s="1">
-        <v>23.382554</v>
+        <v>23.382553999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>1415.480000</v>
+        <v>1415.48</v>
       </c>
       <c r="AW17" s="1">
-        <v>-303.034000</v>
+        <v>-303.03399999999999</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>84187.817978</v>
+        <v>84187.817978000006</v>
       </c>
       <c r="AZ17" s="1">
-        <v>23.385505</v>
+        <v>23.385504999999998</v>
       </c>
       <c r="BA17" s="1">
-        <v>1434.170000</v>
+        <v>1434.17</v>
       </c>
       <c r="BB17" s="1">
-        <v>-353.854000</v>
+        <v>-353.85399999999998</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>84199.123250</v>
+        <v>84199.123250000004</v>
       </c>
       <c r="BE17" s="1">
         <v>23.388645</v>
       </c>
       <c r="BF17" s="1">
-        <v>1517.320000</v>
+        <v>1517.32</v>
       </c>
       <c r="BG17" s="1">
-        <v>-595.675000</v>
+        <v>-595.67499999999995</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>84210.035730</v>
+        <v>84210.035730000003</v>
       </c>
       <c r="BJ17" s="1">
-        <v>23.391677</v>
+        <v>23.391677000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1669.150000</v>
+        <v>1669.15</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1027.670000</v>
+        <v>-1027.67</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>84222.086530</v>
+        <v>84222.08653</v>
       </c>
       <c r="BO17" s="1">
-        <v>23.395024</v>
+        <v>23.395023999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1957.640000</v>
+        <v>1957.64</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1773.420000</v>
+        <v>-1773.42</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>84234.655650</v>
+        <v>84234.655650000001</v>
       </c>
       <c r="BT17" s="1">
         <v>23.398515</v>
       </c>
       <c r="BU17" s="1">
-        <v>2334.560000</v>
+        <v>2334.56</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2631.010000</v>
+        <v>-2631.01</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>84246.316630</v>
+        <v>84246.316630000001</v>
       </c>
       <c r="BY17" s="1">
-        <v>23.401755</v>
+        <v>23.401755000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2806.670000</v>
+        <v>2806.67</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3568.180000</v>
+        <v>-3568.18</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>84258.652135</v>
+        <v>84258.652134999997</v>
       </c>
       <c r="CD17" s="1">
-        <v>23.405181</v>
+        <v>23.405180999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>4184.190000</v>
+        <v>4184.1899999999996</v>
       </c>
       <c r="CF17" s="1">
-        <v>-5811.710000</v>
+        <v>-5811.71</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>84082.676986</v>
+        <v>84082.676986000006</v>
       </c>
       <c r="B18" s="1">
         <v>23.356299</v>
       </c>
       <c r="C18" s="1">
-        <v>1238.440000</v>
+        <v>1238.44</v>
       </c>
       <c r="D18" s="1">
-        <v>-302.517000</v>
+        <v>-302.517</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>84093.126700</v>
+        <v>84093.126699999993</v>
       </c>
       <c r="G18" s="1">
         <v>23.359202</v>
       </c>
       <c r="H18" s="1">
-        <v>1263.350000</v>
+        <v>1263.3499999999999</v>
       </c>
       <c r="I18" s="1">
-        <v>-261.695000</v>
+        <v>-261.69499999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>84104.066959</v>
+        <v>84104.066959000003</v>
       </c>
       <c r="L18" s="1">
-        <v>23.362241</v>
+        <v>23.362241000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>1297.790000</v>
+        <v>1297.79</v>
       </c>
       <c r="N18" s="1">
-        <v>-199.510000</v>
+        <v>-199.51</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>84114.605456</v>
+        <v>84114.605456000005</v>
       </c>
       <c r="Q18" s="1">
-        <v>23.365168</v>
+        <v>23.365168000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>1309.420000</v>
+        <v>1309.42</v>
       </c>
       <c r="S18" s="1">
-        <v>-181.311000</v>
+        <v>-181.31100000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>84125.016004</v>
+        <v>84125.016004000005</v>
       </c>
       <c r="V18" s="1">
-        <v>23.368060</v>
+        <v>23.36806</v>
       </c>
       <c r="W18" s="1">
-        <v>1322.540000</v>
+        <v>1322.54</v>
       </c>
       <c r="X18" s="1">
-        <v>-167.584000</v>
+        <v>-167.584</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>84135.551012</v>
+        <v>84135.551011999996</v>
       </c>
       <c r="AA18" s="1">
-        <v>23.370986</v>
+        <v>23.370985999999998</v>
       </c>
       <c r="AB18" s="1">
-        <v>1339.170000</v>
+        <v>1339.17</v>
       </c>
       <c r="AC18" s="1">
-        <v>-164.697000</v>
+        <v>-164.697</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>84145.802373</v>
+        <v>84145.802372999999</v>
       </c>
       <c r="AF18" s="1">
-        <v>23.373834</v>
+        <v>23.373833999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>1351.610000</v>
+        <v>1351.61</v>
       </c>
       <c r="AH18" s="1">
-        <v>-173.687000</v>
+        <v>-173.68700000000001</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
         <v>84156.404809</v>
       </c>
       <c r="AK18" s="1">
-        <v>23.376779</v>
+        <v>23.376778999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>1371.310000</v>
+        <v>1371.31</v>
       </c>
       <c r="AM18" s="1">
-        <v>-202.280000</v>
+        <v>-202.28</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>84166.866427</v>
+        <v>84166.866427000001</v>
       </c>
       <c r="AP18" s="1">
-        <v>23.379685</v>
+        <v>23.379684999999998</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1391.980000</v>
+        <v>1391.98</v>
       </c>
       <c r="AR18" s="1">
-        <v>-244.701000</v>
+        <v>-244.70099999999999</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>84177.927709</v>
+        <v>84177.927708999996</v>
       </c>
       <c r="AU18" s="1">
-        <v>23.382758</v>
+        <v>23.382757999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>1415.480000</v>
+        <v>1415.48</v>
       </c>
       <c r="AW18" s="1">
-        <v>-303.029000</v>
+        <v>-303.029</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>84188.536638</v>
+        <v>84188.536638000005</v>
       </c>
       <c r="AZ18" s="1">
-        <v>23.385705</v>
+        <v>23.385705000000002</v>
       </c>
       <c r="BA18" s="1">
-        <v>1434.130000</v>
+        <v>1434.13</v>
       </c>
       <c r="BB18" s="1">
-        <v>-353.818000</v>
+        <v>-353.81799999999998</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
         <v>84199.488801</v>
       </c>
       <c r="BE18" s="1">
-        <v>23.388747</v>
+        <v>23.388746999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1517.370000</v>
+        <v>1517.37</v>
       </c>
       <c r="BG18" s="1">
-        <v>-595.666000</v>
+        <v>-595.66600000000005</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>84210.430049</v>
+        <v>84210.430049000002</v>
       </c>
       <c r="BJ18" s="1">
         <v>23.391786</v>
       </c>
       <c r="BK18" s="1">
-        <v>1669.100000</v>
+        <v>1669.1</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1027.690000</v>
+        <v>-1027.69</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>84222.492754</v>
+        <v>84222.492754000006</v>
       </c>
       <c r="BO18" s="1">
-        <v>23.395137</v>
+        <v>23.395136999999998</v>
       </c>
       <c r="BP18" s="1">
-        <v>1957.660000</v>
+        <v>1957.66</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1773.520000</v>
+        <v>-1773.52</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>84235.442800</v>
+        <v>84235.442800000004</v>
       </c>
       <c r="BT18" s="1">
-        <v>23.398734</v>
+        <v>23.398734000000001</v>
       </c>
       <c r="BU18" s="1">
-        <v>2334.670000</v>
+        <v>2334.67</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2630.560000</v>
+        <v>-2630.56</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>84246.436131</v>
+        <v>84246.436130999995</v>
       </c>
       <c r="BY18" s="1">
         <v>23.401788</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2806.280000</v>
+        <v>2806.28</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3568.070000</v>
+        <v>-3568.07</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>84258.846034</v>
+        <v>84258.846034000002</v>
       </c>
       <c r="CD18" s="1">
-        <v>23.405235</v>
+        <v>23.405235000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>4186.450000</v>
+        <v>4186.45</v>
       </c>
       <c r="CF18" s="1">
-        <v>-5812.700000</v>
+        <v>-5812.7</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>84083.117930</v>
+        <v>84083.117929999993</v>
       </c>
       <c r="B19" s="1">
-        <v>23.356422</v>
+        <v>23.356421999999998</v>
       </c>
       <c r="C19" s="1">
-        <v>1238.450000</v>
+        <v>1238.45</v>
       </c>
       <c r="D19" s="1">
-        <v>-302.329000</v>
+        <v>-302.32900000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>84093.585995</v>
+        <v>84093.585995000001</v>
       </c>
       <c r="G19" s="1">
-        <v>23.359329</v>
+        <v>23.359328999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>1262.330000</v>
+        <v>1262.33</v>
       </c>
       <c r="I19" s="1">
-        <v>-261.041000</v>
+        <v>-261.041</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>84104.330335</v>
+        <v>84104.330335000006</v>
       </c>
       <c r="L19" s="1">
-        <v>23.362314</v>
+        <v>23.362314000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>1297.650000</v>
+        <v>1297.6500000000001</v>
       </c>
       <c r="N19" s="1">
-        <v>-199.621000</v>
+        <v>-199.62100000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>84114.867840</v>
+        <v>84114.867840000006</v>
       </c>
       <c r="Q19" s="1">
-        <v>23.365241</v>
+        <v>23.365241000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>1309.520000</v>
+        <v>1309.52</v>
       </c>
       <c r="S19" s="1">
-        <v>-181.329000</v>
+        <v>-181.32900000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>84125.357730</v>
+        <v>84125.357730000003</v>
       </c>
       <c r="V19" s="1">
-        <v>23.368155</v>
+        <v>23.368155000000002</v>
       </c>
       <c r="W19" s="1">
-        <v>1322.420000</v>
+        <v>1322.42</v>
       </c>
       <c r="X19" s="1">
-        <v>-167.549000</v>
+        <v>-167.54900000000001</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
         <v>84135.898212</v>
       </c>
       <c r="AA19" s="1">
-        <v>23.371083</v>
+        <v>23.371082999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>1339.180000</v>
+        <v>1339.18</v>
       </c>
       <c r="AC19" s="1">
-        <v>-164.636000</v>
+        <v>-164.636</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>84146.157500</v>
+        <v>84146.157500000001</v>
       </c>
       <c r="AF19" s="1">
-        <v>23.373933</v>
+        <v>23.373933000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>1351.570000</v>
+        <v>1351.57</v>
       </c>
       <c r="AH19" s="1">
-        <v>-173.701000</v>
+        <v>-173.70099999999999</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>84157.101688</v>
+        <v>84157.101687999995</v>
       </c>
       <c r="AK19" s="1">
         <v>23.376973</v>
       </c>
       <c r="AL19" s="1">
-        <v>1371.300000</v>
+        <v>1371.3</v>
       </c>
       <c r="AM19" s="1">
-        <v>-202.289000</v>
+        <v>-202.28899999999999</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>84167.589632</v>
+        <v>84167.589632000003</v>
       </c>
       <c r="AP19" s="1">
-        <v>23.379886</v>
+        <v>23.379885999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1391.990000</v>
+        <v>1391.99</v>
       </c>
       <c r="AR19" s="1">
-        <v>-244.697000</v>
+        <v>-244.697</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>84178.320541</v>
+        <v>84178.320540999994</v>
       </c>
       <c r="AU19" s="1">
-        <v>23.382867</v>
+        <v>23.382867000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>1415.530000</v>
+        <v>1415.53</v>
       </c>
       <c r="AW19" s="1">
-        <v>-303.004000</v>
+        <v>-303.00400000000002</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>84188.893262</v>
+        <v>84188.893261999998</v>
       </c>
       <c r="AZ19" s="1">
         <v>23.385804</v>
       </c>
       <c r="BA19" s="1">
-        <v>1434.140000</v>
+        <v>1434.14</v>
       </c>
       <c r="BB19" s="1">
-        <v>-353.807000</v>
+        <v>-353.80700000000002</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>84199.847408</v>
+        <v>84199.847408000001</v>
       </c>
       <c r="BE19" s="1">
-        <v>23.388847</v>
+        <v>23.388846999999998</v>
       </c>
       <c r="BF19" s="1">
-        <v>1517.330000</v>
+        <v>1517.33</v>
       </c>
       <c r="BG19" s="1">
-        <v>-595.670000</v>
+        <v>-595.66999999999996</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>84211.179505</v>
+        <v>84211.179504999993</v>
       </c>
       <c r="BJ19" s="1">
         <v>23.391994</v>
       </c>
       <c r="BK19" s="1">
-        <v>1669.060000</v>
+        <v>1669.06</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1027.650000</v>
+        <v>-1027.6500000000001</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>84223.227825</v>
+        <v>84223.227824999994</v>
       </c>
       <c r="BO19" s="1">
-        <v>23.395341</v>
+        <v>23.395340999999998</v>
       </c>
       <c r="BP19" s="1">
-        <v>1957.650000</v>
+        <v>1957.65</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1773.490000</v>
+        <v>-1773.49</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>84235.897175</v>
+        <v>84235.897175000006</v>
       </c>
       <c r="BT19" s="1">
-        <v>23.398860</v>
+        <v>23.398859999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>2335.230000</v>
+        <v>2335.23</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2630.430000</v>
+        <v>-2630.43</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>84246.863681</v>
+        <v>84246.863681000003</v>
       </c>
       <c r="BY19" s="1">
-        <v>23.401907</v>
+        <v>23.401907000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2806.000000</v>
+        <v>2806</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3568.580000</v>
+        <v>-3568.58</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>84259.366834</v>
       </c>
       <c r="CD19" s="1">
-        <v>23.405380</v>
+        <v>23.405380000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>4170.840000</v>
+        <v>4170.84</v>
       </c>
       <c r="CF19" s="1">
-        <v>-5815.780000</v>
+        <v>-5815.78</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>84083.375354</v>
+        <v>84083.375354000003</v>
       </c>
       <c r="B20" s="1">
         <v>23.356493</v>
       </c>
       <c r="C20" s="1">
-        <v>1238.320000</v>
+        <v>1238.32</v>
       </c>
       <c r="D20" s="1">
-        <v>-302.874000</v>
+        <v>-302.87400000000002</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>84093.835484</v>
+        <v>84093.835483999996</v>
       </c>
       <c r="G20" s="1">
         <v>23.359399</v>
       </c>
       <c r="H20" s="1">
-        <v>1262.270000</v>
+        <v>1262.27</v>
       </c>
       <c r="I20" s="1">
-        <v>-260.724000</v>
+        <v>-260.72399999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>84104.675549</v>
+        <v>84104.675549000007</v>
       </c>
       <c r="L20" s="1">
-        <v>23.362410</v>
+        <v>23.362410000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>1297.790000</v>
+        <v>1297.79</v>
       </c>
       <c r="N20" s="1">
-        <v>-199.287000</v>
+        <v>-199.28700000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>84115.220991</v>
+        <v>84115.220990999995</v>
       </c>
       <c r="Q20" s="1">
-        <v>23.365339</v>
+        <v>23.365338999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>1309.520000</v>
+        <v>1309.52</v>
       </c>
       <c r="S20" s="1">
-        <v>-181.327000</v>
+        <v>-181.327</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>84125.701457</v>
+        <v>84125.701457000003</v>
       </c>
       <c r="V20" s="1">
-        <v>23.368250</v>
+        <v>23.36825</v>
       </c>
       <c r="W20" s="1">
-        <v>1322.270000</v>
+        <v>1322.27</v>
       </c>
       <c r="X20" s="1">
-        <v>-167.803000</v>
+        <v>-167.803</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>84136.595587</v>
+        <v>84136.595587000003</v>
       </c>
       <c r="AA20" s="1">
-        <v>23.371277</v>
+        <v>23.371276999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>1339.150000</v>
+        <v>1339.15</v>
       </c>
       <c r="AC20" s="1">
-        <v>-164.710000</v>
+        <v>-164.71</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>84146.846405</v>
+        <v>84146.846405000004</v>
       </c>
       <c r="AF20" s="1">
-        <v>23.374124</v>
+        <v>23.374123999999998</v>
       </c>
       <c r="AG20" s="1">
-        <v>1351.550000</v>
+        <v>1351.55</v>
       </c>
       <c r="AH20" s="1">
-        <v>-173.664000</v>
+        <v>-173.66399999999999</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>84157.450871</v>
+        <v>84157.450870999994</v>
       </c>
       <c r="AK20" s="1">
-        <v>23.377070</v>
+        <v>23.37707</v>
       </c>
       <c r="AL20" s="1">
-        <v>1371.320000</v>
+        <v>1371.32</v>
       </c>
       <c r="AM20" s="1">
-        <v>-202.267000</v>
+        <v>-202.267</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>84167.970025</v>
+        <v>84167.970025000002</v>
       </c>
       <c r="AP20" s="1">
-        <v>23.379992</v>
+        <v>23.379992000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1391.960000</v>
+        <v>1391.96</v>
       </c>
       <c r="AR20" s="1">
-        <v>-244.662000</v>
+        <v>-244.66200000000001</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>84178.685596</v>
+        <v>84178.685595999996</v>
       </c>
       <c r="AU20" s="1">
-        <v>23.382968</v>
+        <v>23.382968000000002</v>
       </c>
       <c r="AV20" s="1">
-        <v>1415.500000</v>
+        <v>1415.5</v>
       </c>
       <c r="AW20" s="1">
-        <v>-303.042000</v>
+        <v>-303.04199999999997</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>84189.623411</v>
+        <v>84189.623410999993</v>
       </c>
       <c r="AZ20" s="1">
-        <v>23.386007</v>
+        <v>23.386006999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1434.130000</v>
+        <v>1434.13</v>
       </c>
       <c r="BB20" s="1">
-        <v>-353.819000</v>
+        <v>-353.81900000000002</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>84200.524446</v>
+        <v>84200.524445999996</v>
       </c>
       <c r="BE20" s="1">
         <v>23.389035</v>
       </c>
       <c r="BF20" s="1">
-        <v>1517.320000</v>
+        <v>1517.32</v>
       </c>
       <c r="BG20" s="1">
-        <v>-595.625000</v>
+        <v>-595.625</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>84211.575017</v>
+        <v>84211.575016999996</v>
       </c>
       <c r="BJ20" s="1">
         <v>23.392104</v>
       </c>
       <c r="BK20" s="1">
-        <v>1669.110000</v>
+        <v>1669.11</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1027.670000</v>
+        <v>-1027.67</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>84223.726801</v>
+        <v>84223.726800999997</v>
       </c>
       <c r="BO20" s="1">
-        <v>23.395480</v>
+        <v>23.395479999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1957.770000</v>
+        <v>1957.77</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1773.540000</v>
+        <v>-1773.54</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>84236.323696</v>
+        <v>84236.323696000007</v>
       </c>
       <c r="BT20" s="1">
-        <v>23.398979</v>
+        <v>23.398979000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>2335.240000</v>
+        <v>2335.2399999999998</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2630.210000</v>
+        <v>-2630.21</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>84247.296689</v>
+        <v>84247.296688999995</v>
       </c>
       <c r="BY20" s="1">
         <v>23.402027</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2806.630000</v>
+        <v>2806.63</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3568.810000</v>
+        <v>-3568.81</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>84259.882177</v>
+        <v>84259.882177000007</v>
       </c>
       <c r="CD20" s="1">
-        <v>23.405523</v>
+        <v>23.405522999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>4172.040000</v>
+        <v>4172.04</v>
       </c>
       <c r="CF20" s="1">
-        <v>-5814.020000</v>
+        <v>-5814.02</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>84083.718624</v>
+        <v>84083.718624000001</v>
       </c>
       <c r="B21" s="1">
         <v>23.356589</v>
       </c>
       <c r="C21" s="1">
-        <v>1238.380000</v>
+        <v>1238.3800000000001</v>
       </c>
       <c r="D21" s="1">
-        <v>-302.425000</v>
+        <v>-302.42500000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>84094.180203</v>
+        <v>84094.180202999996</v>
       </c>
       <c r="G21" s="1">
-        <v>23.359495</v>
+        <v>23.359494999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>1262.660000</v>
+        <v>1262.6600000000001</v>
       </c>
       <c r="I21" s="1">
-        <v>-261.335000</v>
+        <v>-261.33499999999998</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>84105.019809</v>
+        <v>84105.019809000005</v>
       </c>
       <c r="L21" s="1">
         <v>23.362506</v>
       </c>
       <c r="M21" s="1">
-        <v>1297.590000</v>
+        <v>1297.5899999999999</v>
       </c>
       <c r="N21" s="1">
-        <v>-199.445000</v>
+        <v>-199.44499999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>84115.575632</v>
+        <v>84115.575631999993</v>
       </c>
       <c r="Q21" s="1">
-        <v>23.365438</v>
+        <v>23.365438000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>1309.580000</v>
+        <v>1309.58</v>
       </c>
       <c r="S21" s="1">
-        <v>-181.353000</v>
+        <v>-181.35300000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>84126.389445</v>
+        <v>84126.389444999993</v>
       </c>
       <c r="V21" s="1">
-        <v>23.368442</v>
+        <v>23.368442000000002</v>
       </c>
       <c r="W21" s="1">
-        <v>1322.360000</v>
+        <v>1322.36</v>
       </c>
       <c r="X21" s="1">
-        <v>-167.625000</v>
+        <v>-167.625</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>84136.944312</v>
+        <v>84136.944312000007</v>
       </c>
       <c r="AA21" s="1">
-        <v>23.371373</v>
+        <v>23.371372999999998</v>
       </c>
       <c r="AB21" s="1">
-        <v>1339.170000</v>
+        <v>1339.17</v>
       </c>
       <c r="AC21" s="1">
-        <v>-164.864000</v>
+        <v>-164.864</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>84147.193632</v>
+        <v>84147.193631999995</v>
       </c>
       <c r="AF21" s="1">
-        <v>23.374220</v>
+        <v>23.374220000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>1351.560000</v>
+        <v>1351.56</v>
       </c>
       <c r="AH21" s="1">
-        <v>-173.711000</v>
+        <v>-173.71100000000001</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>84157.801543</v>
+        <v>84157.801542999994</v>
       </c>
       <c r="AK21" s="1">
         <v>23.377167</v>
       </c>
       <c r="AL21" s="1">
-        <v>1371.310000</v>
+        <v>1371.31</v>
       </c>
       <c r="AM21" s="1">
-        <v>-202.264000</v>
+        <v>-202.26400000000001</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>84168.329129</v>
+        <v>84168.329129000005</v>
       </c>
       <c r="AP21" s="1">
         <v>23.380091</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1391.980000</v>
+        <v>1391.98</v>
       </c>
       <c r="AR21" s="1">
-        <v>-244.692000</v>
+        <v>-244.69200000000001</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>84179.380528</v>
+        <v>84179.380527999994</v>
       </c>
       <c r="AU21" s="1">
-        <v>23.383161</v>
+        <v>23.383161000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>1415.500000</v>
+        <v>1415.5</v>
       </c>
       <c r="AW21" s="1">
-        <v>-303.036000</v>
+        <v>-303.036</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>84190.000333</v>
+        <v>84190.000333000004</v>
       </c>
       <c r="AZ21" s="1">
         <v>23.386111</v>
       </c>
       <c r="BA21" s="1">
-        <v>1434.140000</v>
+        <v>1434.14</v>
       </c>
       <c r="BB21" s="1">
-        <v>-353.795000</v>
+        <v>-353.79500000000002</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>84200.956958</v>
+        <v>84200.956957999995</v>
       </c>
       <c r="BE21" s="1">
-        <v>23.389155</v>
+        <v>23.389154999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1517.370000</v>
+        <v>1517.37</v>
       </c>
       <c r="BG21" s="1">
-        <v>-595.647000</v>
+        <v>-595.64700000000005</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>84211.980545</v>
+        <v>84211.980544999999</v>
       </c>
       <c r="BJ21" s="1">
-        <v>23.392217</v>
+        <v>23.392216999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1669.050000</v>
+        <v>1669.05</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1027.670000</v>
+        <v>-1027.67</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>84224.227760</v>
+        <v>84224.227759999994</v>
       </c>
       <c r="BO21" s="1">
         <v>23.395619</v>
       </c>
       <c r="BP21" s="1">
-        <v>1957.660000</v>
+        <v>1957.66</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1773.510000</v>
+        <v>-1773.51</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>84236.767616</v>
+        <v>84236.767615999997</v>
       </c>
       <c r="BT21" s="1">
-        <v>23.399102</v>
+        <v>23.399101999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>2335.890000</v>
+        <v>2335.89</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2630.420000</v>
+        <v>-2630.42</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>84247.723776</v>
+        <v>84247.723775999999</v>
       </c>
       <c r="BY21" s="1">
-        <v>23.402145</v>
+        <v>23.402145000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2806.640000</v>
+        <v>2806.64</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3568.690000</v>
+        <v>-3568.69</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>84260.435216</v>
+        <v>84260.435215999998</v>
       </c>
       <c r="CD21" s="1">
         <v>23.405676</v>
       </c>
       <c r="CE21" s="1">
-        <v>4183.410000</v>
+        <v>4183.41</v>
       </c>
       <c r="CF21" s="1">
-        <v>-5809.390000</v>
+        <v>-5809.39</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>84084.060361</v>
+        <v>84084.060360999996</v>
       </c>
       <c r="B22" s="1">
         <v>23.356683</v>
       </c>
       <c r="C22" s="1">
-        <v>1238.180000</v>
+        <v>1238.18</v>
       </c>
       <c r="D22" s="1">
-        <v>-302.738000</v>
+        <v>-302.738</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>84094.522939</v>
+        <v>84094.522939000002</v>
       </c>
       <c r="G22" s="1">
-        <v>23.359590</v>
+        <v>23.359590000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>1263.040000</v>
+        <v>1263.04</v>
       </c>
       <c r="I22" s="1">
-        <v>-261.143000</v>
+        <v>-261.14299999999997</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>84105.710237</v>
+        <v>84105.710237000007</v>
       </c>
       <c r="L22" s="1">
-        <v>23.362697</v>
+        <v>23.362697000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>1297.930000</v>
+        <v>1297.93</v>
       </c>
       <c r="N22" s="1">
-        <v>-199.353000</v>
+        <v>-199.35300000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>84116.269054</v>
+        <v>84116.269054000004</v>
       </c>
       <c r="Q22" s="1">
-        <v>23.365630</v>
+        <v>23.365629999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>1309.440000</v>
+        <v>1309.44</v>
       </c>
       <c r="S22" s="1">
-        <v>-181.402000</v>
+        <v>-181.40199999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>84126.734660</v>
+        <v>84126.734660000002</v>
       </c>
       <c r="V22" s="1">
         <v>23.368537</v>
       </c>
       <c r="W22" s="1">
-        <v>1322.390000</v>
+        <v>1322.39</v>
       </c>
       <c r="X22" s="1">
-        <v>-167.498000</v>
+        <v>-167.49799999999999</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>84137.294450</v>
+        <v>84137.294450000001</v>
       </c>
       <c r="AA22" s="1">
         <v>23.371471</v>
       </c>
       <c r="AB22" s="1">
-        <v>1339.130000</v>
+        <v>1339.13</v>
       </c>
       <c r="AC22" s="1">
-        <v>-164.540000</v>
+        <v>-164.54</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
         <v>84147.536838</v>
@@ -5711,118 +6127,118 @@
         <v>23.374316</v>
       </c>
       <c r="AG22" s="1">
-        <v>1351.640000</v>
+        <v>1351.64</v>
       </c>
       <c r="AH22" s="1">
-        <v>-173.659000</v>
+        <v>-173.65899999999999</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>84158.470150</v>
+        <v>84158.470149999994</v>
       </c>
       <c r="AK22" s="1">
-        <v>23.377353</v>
+        <v>23.377352999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>1371.280000</v>
+        <v>1371.28</v>
       </c>
       <c r="AM22" s="1">
-        <v>-202.297000</v>
+        <v>-202.297</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>84169.019064</v>
+        <v>84169.019063999993</v>
       </c>
       <c r="AP22" s="1">
-        <v>23.380283</v>
+        <v>23.380282999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1391.950000</v>
+        <v>1391.95</v>
       </c>
       <c r="AR22" s="1">
-        <v>-244.705000</v>
+        <v>-244.70500000000001</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>84179.804570</v>
+        <v>84179.804569999993</v>
       </c>
       <c r="AU22" s="1">
-        <v>23.383279</v>
+        <v>23.383279000000002</v>
       </c>
       <c r="AV22" s="1">
-        <v>1415.490000</v>
+        <v>1415.49</v>
       </c>
       <c r="AW22" s="1">
-        <v>-303.036000</v>
+        <v>-303.036</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>84190.359442</v>
+        <v>84190.359442000001</v>
       </c>
       <c r="AZ22" s="1">
-        <v>23.386211</v>
+        <v>23.386210999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1434.180000</v>
+        <v>1434.18</v>
       </c>
       <c r="BB22" s="1">
-        <v>-353.791000</v>
+        <v>-353.791</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>84201.321022</v>
+        <v>84201.321022000004</v>
       </c>
       <c r="BE22" s="1">
         <v>23.389256</v>
       </c>
       <c r="BF22" s="1">
-        <v>1517.350000</v>
+        <v>1517.35</v>
       </c>
       <c r="BG22" s="1">
-        <v>-595.639000</v>
+        <v>-595.63900000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>84212.356531</v>
+        <v>84212.356530999998</v>
       </c>
       <c r="BJ22" s="1">
-        <v>23.392321</v>
+        <v>23.392320999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1669.060000</v>
+        <v>1669.06</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1027.640000</v>
+        <v>-1027.6400000000001</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>84224.539247</v>
+        <v>84224.539246999993</v>
       </c>
       <c r="BO22" s="1">
         <v>23.395705</v>
       </c>
       <c r="BP22" s="1">
-        <v>1957.800000</v>
+        <v>1957.8</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1773.500000</v>
+        <v>-1773.5</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
         <v>84237.267582</v>
@@ -5831,285 +6247,285 @@
         <v>23.399241</v>
       </c>
       <c r="BU22" s="1">
-        <v>2335.980000</v>
+        <v>2335.98</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2629.840000</v>
+        <v>-2629.84</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>84248.139889</v>
+        <v>84248.139888999998</v>
       </c>
       <c r="BY22" s="1">
-        <v>23.402261</v>
+        <v>23.402260999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2806.260000</v>
+        <v>2806.26</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3568.540000</v>
+        <v>-3568.54</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>84260.961509</v>
+        <v>84260.961509000001</v>
       </c>
       <c r="CD22" s="1">
-        <v>23.405823</v>
+        <v>23.405823000000002</v>
       </c>
       <c r="CE22" s="1">
-        <v>4168.890000</v>
+        <v>4168.8900000000003</v>
       </c>
       <c r="CF22" s="1">
-        <v>-5817.060000</v>
+        <v>-5817.06</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>84084.742329</v>
+        <v>84084.742329000001</v>
       </c>
       <c r="B23" s="1">
         <v>23.356873</v>
       </c>
       <c r="C23" s="1">
-        <v>1238.380000</v>
+        <v>1238.3800000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>-302.335000</v>
+        <v>-302.33499999999998</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>84095.200474</v>
+        <v>84095.200473999997</v>
       </c>
       <c r="G23" s="1">
-        <v>23.359778</v>
+        <v>23.359777999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>1263.050000</v>
+        <v>1263.05</v>
       </c>
       <c r="I23" s="1">
-        <v>-261.225000</v>
+        <v>-261.22500000000002</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>84106.054924</v>
+        <v>84106.054923999996</v>
       </c>
       <c r="L23" s="1">
         <v>23.362793</v>
       </c>
       <c r="M23" s="1">
-        <v>1297.940000</v>
+        <v>1297.94</v>
       </c>
       <c r="N23" s="1">
-        <v>-199.425000</v>
+        <v>-199.42500000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>84116.882094</v>
+        <v>84116.882094000001</v>
       </c>
       <c r="Q23" s="1">
-        <v>23.365801</v>
+        <v>23.365801000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>1309.450000</v>
+        <v>1309.45</v>
       </c>
       <c r="S23" s="1">
-        <v>-181.283000</v>
+        <v>-181.28299999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>84127.076368</v>
+        <v>84127.076367999995</v>
       </c>
       <c r="V23" s="1">
-        <v>23.368632</v>
+        <v>23.368632000000002</v>
       </c>
       <c r="W23" s="1">
-        <v>1322.230000</v>
+        <v>1322.23</v>
       </c>
       <c r="X23" s="1">
-        <v>-167.679000</v>
+        <v>-167.679</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>84137.984385</v>
+        <v>84137.984385000003</v>
       </c>
       <c r="AA23" s="1">
-        <v>23.371662</v>
+        <v>23.371662000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>1339.110000</v>
+        <v>1339.11</v>
       </c>
       <c r="AC23" s="1">
-        <v>-164.618000</v>
+        <v>-164.61799999999999</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>84148.204453</v>
+        <v>84148.204452999998</v>
       </c>
       <c r="AF23" s="1">
-        <v>23.374501</v>
+        <v>23.374500999999999</v>
       </c>
       <c r="AG23" s="1">
-        <v>1351.590000</v>
+        <v>1351.59</v>
       </c>
       <c r="AH23" s="1">
-        <v>-173.731000</v>
+        <v>-173.73099999999999</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>84158.846614</v>
+        <v>84158.846613999995</v>
       </c>
       <c r="AK23" s="1">
         <v>23.377457</v>
       </c>
       <c r="AL23" s="1">
-        <v>1371.320000</v>
+        <v>1371.32</v>
       </c>
       <c r="AM23" s="1">
-        <v>-202.317000</v>
+        <v>-202.31700000000001</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>84169.409416</v>
+        <v>84169.409415999995</v>
       </c>
       <c r="AP23" s="1">
-        <v>23.380392</v>
+        <v>23.380392000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1391.930000</v>
+        <v>1391.93</v>
       </c>
       <c r="AR23" s="1">
-        <v>-244.703000</v>
+        <v>-244.703</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>84180.172601</v>
+        <v>84180.172600999998</v>
       </c>
       <c r="AU23" s="1">
         <v>23.383381</v>
       </c>
       <c r="AV23" s="1">
-        <v>1415.510000</v>
+        <v>1415.51</v>
       </c>
       <c r="AW23" s="1">
-        <v>-303.038000</v>
+        <v>-303.03800000000001</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>84190.717549</v>
+        <v>84190.717548999994</v>
       </c>
       <c r="AZ23" s="1">
-        <v>23.386310</v>
+        <v>23.386310000000002</v>
       </c>
       <c r="BA23" s="1">
-        <v>1434.160000</v>
+        <v>1434.16</v>
       </c>
       <c r="BB23" s="1">
-        <v>-353.792000</v>
+        <v>-353.79199999999997</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>84201.680125</v>
+        <v>84201.680124999999</v>
       </c>
       <c r="BE23" s="1">
-        <v>23.389356</v>
+        <v>23.389355999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1517.360000</v>
+        <v>1517.36</v>
       </c>
       <c r="BG23" s="1">
-        <v>-595.638000</v>
+        <v>-595.63800000000003</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>84212.787038</v>
+        <v>84212.787037999995</v>
       </c>
       <c r="BJ23" s="1">
-        <v>23.392441</v>
+        <v>23.392441000000002</v>
       </c>
       <c r="BK23" s="1">
-        <v>1669.080000</v>
+        <v>1669.08</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1027.670000</v>
+        <v>-1027.67</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>84225.324911</v>
+        <v>84225.324911000003</v>
       </c>
       <c r="BO23" s="1">
-        <v>23.395924</v>
+        <v>23.395924000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1957.690000</v>
+        <v>1957.69</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1773.380000</v>
+        <v>-1773.38</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>84237.606846</v>
+        <v>84237.606845999995</v>
       </c>
       <c r="BT23" s="1">
-        <v>23.399335</v>
+        <v>23.399335000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>2336.400000</v>
+        <v>2336.4</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2630.000000</v>
+        <v>-2630</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>84248.594718</v>
+        <v>84248.594717999993</v>
       </c>
       <c r="BY23" s="1">
-        <v>23.402387</v>
+        <v>23.402387000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2806.160000</v>
+        <v>2806.16</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3568.030000</v>
+        <v>-3568.03</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
         <v>84261.481774</v>
@@ -6118,786 +6534,787 @@
         <v>23.405967</v>
       </c>
       <c r="CE23" s="1">
-        <v>4177.900000</v>
+        <v>4177.8999999999996</v>
       </c>
       <c r="CF23" s="1">
-        <v>-5830.280000</v>
+        <v>-5830.28</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>84085.084569</v>
+        <v>84085.084568999999</v>
       </c>
       <c r="B24" s="1">
-        <v>23.356968</v>
+        <v>23.356967999999998</v>
       </c>
       <c r="C24" s="1">
-        <v>1238.080000</v>
+        <v>1238.08</v>
       </c>
       <c r="D24" s="1">
-        <v>-302.424000</v>
+        <v>-302.42399999999998</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>84095.580410</v>
+        <v>84095.580409999995</v>
       </c>
       <c r="G24" s="1">
         <v>23.359883</v>
       </c>
       <c r="H24" s="1">
-        <v>1262.360000</v>
+        <v>1262.3599999999999</v>
       </c>
       <c r="I24" s="1">
-        <v>-260.896000</v>
+        <v>-260.89600000000002</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>84106.405596</v>
+        <v>84106.405595999997</v>
       </c>
       <c r="L24" s="1">
-        <v>23.362890</v>
+        <v>23.36289</v>
       </c>
       <c r="M24" s="1">
-        <v>1297.850000</v>
+        <v>1297.8499999999999</v>
       </c>
       <c r="N24" s="1">
-        <v>-199.531000</v>
+        <v>-199.53100000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>84117.316093</v>
+        <v>84117.316093000001</v>
       </c>
       <c r="Q24" s="1">
         <v>23.365921</v>
       </c>
       <c r="R24" s="1">
-        <v>1309.520000</v>
+        <v>1309.52</v>
       </c>
       <c r="S24" s="1">
-        <v>-181.310000</v>
+        <v>-181.31</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>84127.735054</v>
+        <v>84127.735054000004</v>
       </c>
       <c r="V24" s="1">
-        <v>23.368815</v>
+        <v>23.368815000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>1322.270000</v>
+        <v>1322.27</v>
       </c>
       <c r="X24" s="1">
-        <v>-167.472000</v>
+        <v>-167.47200000000001</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>84138.336547</v>
+        <v>84138.336546999999</v>
       </c>
       <c r="AA24" s="1">
-        <v>23.371760</v>
+        <v>23.371759999999998</v>
       </c>
       <c r="AB24" s="1">
-        <v>1339.200000</v>
+        <v>1339.2</v>
       </c>
       <c r="AC24" s="1">
-        <v>-164.643000</v>
+        <v>-164.643</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>84148.565043</v>
+        <v>84148.565042999995</v>
       </c>
       <c r="AF24" s="1">
-        <v>23.374601</v>
+        <v>23.374600999999998</v>
       </c>
       <c r="AG24" s="1">
-        <v>1351.600000</v>
+        <v>1351.6</v>
       </c>
       <c r="AH24" s="1">
-        <v>-173.711000</v>
+        <v>-173.71100000000001</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>84159.194807</v>
+        <v>84159.194807000007</v>
       </c>
       <c r="AK24" s="1">
         <v>23.377554</v>
       </c>
       <c r="AL24" s="1">
-        <v>1371.290000</v>
+        <v>1371.29</v>
       </c>
       <c r="AM24" s="1">
-        <v>-202.293000</v>
+        <v>-202.29300000000001</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>84169.770008</v>
+        <v>84169.770008000007</v>
       </c>
       <c r="AP24" s="1">
         <v>23.380492</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1391.970000</v>
+        <v>1391.97</v>
       </c>
       <c r="AR24" s="1">
-        <v>-244.712000</v>
+        <v>-244.71199999999999</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>84180.534681</v>
+        <v>84180.534681000005</v>
       </c>
       <c r="AU24" s="1">
-        <v>23.383482</v>
+        <v>23.383482000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>1415.500000</v>
+        <v>1415.5</v>
       </c>
       <c r="AW24" s="1">
-        <v>-303.000000</v>
+        <v>-303</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>84191.200155</v>
+        <v>84191.200154999999</v>
       </c>
       <c r="AZ24" s="1">
-        <v>23.386444</v>
+        <v>23.386444000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>1434.160000</v>
+        <v>1434.16</v>
       </c>
       <c r="BB24" s="1">
-        <v>-353.765000</v>
+        <v>-353.76499999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>84202.125038</v>
+        <v>84202.125037999998</v>
       </c>
       <c r="BE24" s="1">
-        <v>23.389479</v>
+        <v>23.389479000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1517.350000</v>
+        <v>1517.35</v>
       </c>
       <c r="BG24" s="1">
-        <v>-595.636000</v>
+        <v>-595.63599999999997</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>84213.129774</v>
+        <v>84213.129774000001</v>
       </c>
       <c r="BJ24" s="1">
         <v>23.392536</v>
       </c>
       <c r="BK24" s="1">
-        <v>1669.020000</v>
+        <v>1669.02</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1027.550000</v>
+        <v>-1027.55</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>84225.735598</v>
+        <v>84225.735597999999</v>
       </c>
       <c r="BO24" s="1">
-        <v>23.396038</v>
+        <v>23.396038000000001</v>
       </c>
       <c r="BP24" s="1">
-        <v>1957.620000</v>
+        <v>1957.62</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1773.370000</v>
+        <v>-1773.37</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>84238.021501</v>
+        <v>84238.021500999996</v>
       </c>
       <c r="BT24" s="1">
-        <v>23.399450</v>
+        <v>23.399450000000002</v>
       </c>
       <c r="BU24" s="1">
-        <v>2336.530000</v>
+        <v>2336.5300000000002</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2629.940000</v>
+        <v>-2629.94</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>84249.012848</v>
+        <v>84249.012847999998</v>
       </c>
       <c r="BY24" s="1">
         <v>23.402504</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2805.910000</v>
+        <v>2805.91</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3568.350000</v>
+        <v>-3568.35</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>84262.000589</v>
+        <v>84262.000589000003</v>
       </c>
       <c r="CD24" s="1">
-        <v>23.406111</v>
+        <v>23.406110999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>4188.880000</v>
+        <v>4188.88</v>
       </c>
       <c r="CF24" s="1">
-        <v>-5818.260000</v>
+        <v>-5818.26</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>84085.430779</v>
+        <v>84085.430779000002</v>
       </c>
       <c r="B25" s="1">
-        <v>23.357064</v>
+        <v>23.357064000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>1238.020000</v>
+        <v>1238.02</v>
       </c>
       <c r="D25" s="1">
-        <v>-302.622000</v>
+        <v>-302.62200000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>84095.907770</v>
+        <v>84095.907770000005</v>
       </c>
       <c r="G25" s="1">
-        <v>23.359974</v>
+        <v>23.359974000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>1262.740000</v>
+        <v>1262.74</v>
       </c>
       <c r="I25" s="1">
-        <v>-261.400000</v>
+        <v>-261.39999999999998</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>84107.063290</v>
+        <v>84107.063290000006</v>
       </c>
       <c r="L25" s="1">
         <v>23.363073</v>
       </c>
       <c r="M25" s="1">
-        <v>1297.790000</v>
+        <v>1297.79</v>
       </c>
       <c r="N25" s="1">
-        <v>-199.372000</v>
+        <v>-199.37200000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>84117.765505</v>
+        <v>84117.765505000003</v>
       </c>
       <c r="Q25" s="1">
-        <v>23.366046</v>
+        <v>23.366046000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>1309.490000</v>
+        <v>1309.49</v>
       </c>
       <c r="S25" s="1">
-        <v>-181.318000</v>
+        <v>-181.31800000000001</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>84128.108046</v>
+        <v>84128.108045999994</v>
       </c>
       <c r="V25" s="1">
-        <v>23.368919</v>
+        <v>23.368919000000002</v>
       </c>
       <c r="W25" s="1">
-        <v>1322.290000</v>
+        <v>1322.29</v>
       </c>
       <c r="X25" s="1">
-        <v>-167.469000</v>
+        <v>-167.46899999999999</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>84138.693170</v>
+        <v>84138.693169999999</v>
       </c>
       <c r="AA25" s="1">
-        <v>23.371859</v>
+        <v>23.371859000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>1339.230000</v>
+        <v>1339.23</v>
       </c>
       <c r="AC25" s="1">
-        <v>-164.645000</v>
+        <v>-164.64500000000001</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>84148.909273</v>
+        <v>84148.909272999997</v>
       </c>
       <c r="AF25" s="1">
-        <v>23.374697</v>
+        <v>23.374697000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>1351.580000</v>
+        <v>1351.58</v>
       </c>
       <c r="AH25" s="1">
-        <v>-173.636000</v>
+        <v>-173.636</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>84159.543494</v>
+        <v>84159.543493999998</v>
       </c>
       <c r="AK25" s="1">
         <v>23.377651</v>
       </c>
       <c r="AL25" s="1">
-        <v>1371.320000</v>
+        <v>1371.32</v>
       </c>
       <c r="AM25" s="1">
-        <v>-202.278000</v>
+        <v>-202.27799999999999</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>84170.130600</v>
+        <v>84170.130600000004</v>
       </c>
       <c r="AP25" s="1">
         <v>23.380592</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1391.980000</v>
+        <v>1391.98</v>
       </c>
       <c r="AR25" s="1">
-        <v>-244.707000</v>
+        <v>-244.70699999999999</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>84180.972152</v>
+        <v>84180.972152000002</v>
       </c>
       <c r="AU25" s="1">
-        <v>23.383603</v>
+        <v>23.383603000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>1415.470000</v>
+        <v>1415.47</v>
       </c>
       <c r="AW25" s="1">
-        <v>-303.053000</v>
+        <v>-303.053</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>84191.429308</v>
+        <v>84191.429308000006</v>
       </c>
       <c r="AZ25" s="1">
-        <v>23.386508</v>
+        <v>23.386507999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1434.150000</v>
+        <v>1434.15</v>
       </c>
       <c r="BB25" s="1">
-        <v>-353.803000</v>
+        <v>-353.803</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>84202.399820</v>
+        <v>84202.399820000006</v>
       </c>
       <c r="BE25" s="1">
-        <v>23.389556</v>
+        <v>23.389555999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1517.300000</v>
+        <v>1517.3</v>
       </c>
       <c r="BG25" s="1">
-        <v>-595.658000</v>
+        <v>-595.65800000000002</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>84213.503276</v>
+        <v>84213.503276000003</v>
       </c>
       <c r="BJ25" s="1">
-        <v>23.392640</v>
+        <v>23.39264</v>
       </c>
       <c r="BK25" s="1">
-        <v>1668.980000</v>
+        <v>1668.98</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1027.690000</v>
+        <v>-1027.69</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>84226.129949</v>
+        <v>84226.129948999995</v>
       </c>
       <c r="BO25" s="1">
-        <v>23.396147</v>
+        <v>23.396146999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1957.600000</v>
+        <v>1957.6</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1773.500000</v>
+        <v>-1773.5</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>84238.439133</v>
+        <v>84238.439133000007</v>
       </c>
       <c r="BT25" s="1">
         <v>23.399566</v>
       </c>
       <c r="BU25" s="1">
-        <v>2336.920000</v>
+        <v>2336.92</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2630.320000</v>
+        <v>-2630.32</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>84249.460280</v>
+        <v>84249.460279999999</v>
       </c>
       <c r="BY25" s="1">
         <v>23.402628</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2806.200000</v>
+        <v>2806.2</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3568.490000</v>
+        <v>-3568.49</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>84262.517458</v>
+        <v>84262.517458000002</v>
       </c>
       <c r="CD25" s="1">
-        <v>23.406255</v>
+        <v>23.406255000000002</v>
       </c>
       <c r="CE25" s="1">
-        <v>4190.120000</v>
+        <v>4190.12</v>
       </c>
       <c r="CF25" s="1">
-        <v>-5824.500000</v>
+        <v>-5824.5</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>84086.098389</v>
+        <v>84086.098389000006</v>
       </c>
       <c r="B26" s="1">
-        <v>23.357250</v>
+        <v>23.357250000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>1238.330000</v>
+        <v>1238.33</v>
       </c>
       <c r="D26" s="1">
-        <v>-302.573000</v>
+        <v>-302.57299999999998</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>84096.601182</v>
+        <v>84096.601181999999</v>
       </c>
       <c r="G26" s="1">
-        <v>23.360167</v>
+        <v>23.360167000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>1263.020000</v>
+        <v>1263.02</v>
       </c>
       <c r="I26" s="1">
-        <v>-261.100000</v>
+        <v>-261.10000000000002</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>84107.442234</v>
+        <v>84107.442234000002</v>
       </c>
       <c r="L26" s="1">
-        <v>23.363178</v>
+        <v>23.363178000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>1297.830000</v>
+        <v>1297.83</v>
       </c>
       <c r="N26" s="1">
-        <v>-199.374000</v>
+        <v>-199.374</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>84118.011484</v>
+        <v>84118.011484000002</v>
       </c>
       <c r="Q26" s="1">
         <v>23.366114</v>
       </c>
       <c r="R26" s="1">
-        <v>1309.520000</v>
+        <v>1309.52</v>
       </c>
       <c r="S26" s="1">
-        <v>-181.394000</v>
+        <v>-181.39400000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>84128.450783</v>
+        <v>84128.450782999993</v>
       </c>
       <c r="V26" s="1">
         <v>23.369014</v>
       </c>
       <c r="W26" s="1">
-        <v>1322.280000</v>
+        <v>1322.28</v>
       </c>
       <c r="X26" s="1">
-        <v>-167.366000</v>
+        <v>-167.36600000000001</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>84139.039376</v>
+        <v>84139.039376000001</v>
       </c>
       <c r="AA26" s="1">
         <v>23.371955</v>
       </c>
       <c r="AB26" s="1">
-        <v>1339.100000</v>
+        <v>1339.1</v>
       </c>
       <c r="AC26" s="1">
-        <v>-164.595000</v>
+        <v>-164.595</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>84149.255474</v>
+        <v>84149.255474000005</v>
       </c>
       <c r="AF26" s="1">
         <v>23.374793</v>
       </c>
       <c r="AG26" s="1">
-        <v>1351.620000</v>
+        <v>1351.62</v>
       </c>
       <c r="AH26" s="1">
-        <v>-173.688000</v>
+        <v>-173.68799999999999</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>84159.961162</v>
+        <v>84159.961162000007</v>
       </c>
       <c r="AK26" s="1">
-        <v>23.377767</v>
+        <v>23.377766999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>1371.310000</v>
+        <v>1371.31</v>
       </c>
       <c r="AM26" s="1">
-        <v>-202.292000</v>
+        <v>-202.292</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>84170.553190</v>
+        <v>84170.553190000006</v>
       </c>
       <c r="AP26" s="1">
         <v>23.380709</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1392.000000</v>
+        <v>1392</v>
       </c>
       <c r="AR26" s="1">
-        <v>-244.700000</v>
+        <v>-244.7</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>84181.263801</v>
+        <v>84181.263800999994</v>
       </c>
       <c r="AU26" s="1">
-        <v>23.383684</v>
+        <v>23.383683999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>1415.500000</v>
+        <v>1415.5</v>
       </c>
       <c r="AW26" s="1">
-        <v>-303.050000</v>
+        <v>-303.05</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>84191.788447</v>
+        <v>84191.788446999999</v>
       </c>
       <c r="AZ26" s="1">
-        <v>23.386608</v>
+        <v>23.386607999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1434.140000</v>
+        <v>1434.14</v>
       </c>
       <c r="BB26" s="1">
-        <v>-353.807000</v>
+        <v>-353.80700000000002</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>84202.763922</v>
+        <v>84202.763921999998</v>
       </c>
       <c r="BE26" s="1">
         <v>23.389657</v>
       </c>
       <c r="BF26" s="1">
-        <v>1517.300000</v>
+        <v>1517.3</v>
       </c>
       <c r="BG26" s="1">
-        <v>-595.612000</v>
+        <v>-595.61199999999997</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>84213.882702</v>
+        <v>84213.882702000003</v>
       </c>
       <c r="BJ26" s="1">
-        <v>23.392745</v>
+        <v>23.392745000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1668.960000</v>
+        <v>1668.96</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1027.690000</v>
+        <v>-1027.69</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>84226.957243</v>
+        <v>84226.957242999997</v>
       </c>
       <c r="BO26" s="1">
-        <v>23.396377</v>
+        <v>23.396377000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1957.600000</v>
+        <v>1957.6</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1773.220000</v>
+        <v>-1773.22</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>84238.872640</v>
+        <v>84238.872640000001</v>
       </c>
       <c r="BT26" s="1">
         <v>23.399687</v>
       </c>
       <c r="BU26" s="1">
-        <v>2337.410000</v>
+        <v>2337.41</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2630.080000</v>
+        <v>-2630.08</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>84249.882365</v>
+        <v>84249.882364999998</v>
       </c>
       <c r="BY26" s="1">
-        <v>23.402745</v>
+        <v>23.402744999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2806.340000</v>
+        <v>2806.34</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3567.740000</v>
+        <v>-3567.74</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>84263.069964</v>
+        <v>84263.069963999995</v>
       </c>
       <c r="CD26" s="1">
-        <v>23.406408</v>
+        <v>23.406407999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>4175.880000</v>
+        <v>4175.88</v>
       </c>
       <c r="CF26" s="1">
-        <v>-5829.120000</v>
+        <v>-5829.12</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>